--- a/etl/data/input/Datos_carga_trimestral_previo.xlsx
+++ b/etl/data/input/Datos_carga_trimestral_previo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8100" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="PIB" sheetId="33" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -733,7 +733,7 @@
         <v>2.4</v>
       </c>
       <c r="E2" s="3">
-        <v>1.0739908838957797</v>
+        <v>1.1046544952446926</v>
       </c>
       <c r="F2" s="4">
         <v>107.5941</v>
@@ -742,7 +742,7 @@
         <v>2.645</v>
       </c>
       <c r="H2" s="3">
-        <v>1.3012516828122609</v>
+        <v>1.3110086940351953</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -760,7 +760,7 @@
         <v>2.1</v>
       </c>
       <c r="E3" s="3">
-        <v>0.93453922118686961</v>
+        <v>0.96367116936217456</v>
       </c>
       <c r="F3" s="4">
         <v>108.22450000000001</v>
@@ -769,7 +769,7 @@
         <v>2.1996000000000002</v>
       </c>
       <c r="H3" s="3">
-        <v>1.1358880109927665</v>
+        <v>1.1451748359049467</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -787,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>0.78750924537184963</v>
+        <v>0.81391073842158279</v>
       </c>
       <c r="F4" s="4">
         <v>108.7877</v>
@@ -796,7 +796,7 @@
         <v>2.0886</v>
       </c>
       <c r="H4" s="3">
-        <v>0.96767532340918239</v>
+        <v>0.97611434165467392</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>1.8</v>
       </c>
       <c r="E5" s="3">
-        <v>0.64028465057559225</v>
+        <v>0.66253250081409898</v>
       </c>
       <c r="F5" s="4">
         <v>109.505</v>
@@ -823,7 +823,7 @@
         <v>2.2105000000000001</v>
       </c>
       <c r="H5" s="3">
-        <v>0.80421717557262962</v>
+        <v>0.81135973845175091</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E6" s="3">
-        <v>0.50100693764461235</v>
+        <v>0.51743706071939111</v>
       </c>
       <c r="F6" s="4">
         <v>110.1717</v>
@@ -849,7 +849,7 @@
         <v>2.3956</v>
       </c>
       <c r="H6" s="3">
-        <v>0.65381770091709845</v>
+        <v>0.65913885700001762</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -867,7 +867,7 @@
         <v>2.4</v>
       </c>
       <c r="E7" s="3">
-        <v>0.378542429518815</v>
+        <v>0.38723593950411828</v>
       </c>
       <c r="F7" s="4">
         <v>110.553</v>
@@ -876,7 +876,7 @@
         <v>2.1515</v>
       </c>
       <c r="H7" s="3">
-        <v>0.52565995964184631</v>
+        <v>0.52855399066678177</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>0.28288181980207744</v>
+        <v>0.28165476037199</v>
       </c>
       <c r="F8" s="4">
         <v>110.8792</v>
@@ -903,7 +903,7 @@
         <v>1.9226000000000001</v>
       </c>
       <c r="H8" s="3">
-        <v>0.43001562588305742</v>
+        <v>0.42979272103372623</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -921,7 +921,7 @@
         <v>-0.4</v>
       </c>
       <c r="E9" s="3">
-        <v>0.22527921307982754</v>
+        <v>0.21167712406452577</v>
       </c>
       <c r="F9" s="4">
         <v>111.12</v>
@@ -930,7 +930,7 @@
         <v>1.4748000000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>0.37817252380214006</v>
+        <v>0.37405697093836709</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>-5.4</v>
       </c>
       <c r="E10" s="3">
-        <v>0.21743691280011695</v>
+        <v>0.18873559709801255</v>
       </c>
       <c r="F10" s="4">
         <v>105.0227</v>
@@ -956,7 +956,7 @@
         <v>-4.6736000000000004</v>
       </c>
       <c r="H10" s="3">
-        <v>0.38235134279432548</v>
+        <v>0.37348166776757435</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>-19.5</v>
       </c>
       <c r="E11" s="3">
-        <v>0.27066642290282245</v>
+        <v>0.22388044778619695</v>
       </c>
       <c r="F11" s="4">
         <v>86.301000000000002</v>
@@ -983,7 +983,7 @@
         <v>-21.936900000000001</v>
       </c>
       <c r="H11" s="3">
-        <v>0.4554581644274685</v>
+        <v>0.4408897033013815</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1001,7 +1001,7 @@
         <v>-9.6</v>
       </c>
       <c r="E12" s="3">
-        <v>0.39276834925732074</v>
+        <v>0.3246689846946394</v>
       </c>
       <c r="F12" s="4">
         <v>100.65949999999999</v>
@@ -1010,7 +1010,7 @@
         <v>-9.2169000000000008</v>
       </c>
       <c r="H12" s="3">
-        <v>0.6072391006801775</v>
+        <v>0.58594954327746718</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>-7.4</v>
       </c>
       <c r="E13" s="3">
-        <v>0.57918663121867431</v>
+        <v>0.48633109110903394</v>
       </c>
       <c r="F13" s="4">
         <v>100.60039999999999</v>
@@ -1037,7 +1037,7 @@
         <v>-9.4667999999999992</v>
       </c>
       <c r="H13" s="3">
-        <v>0.83344503967829364</v>
+        <v>0.80434353486894672</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1054,7 +1054,7 @@
         <v>-2.4</v>
       </c>
       <c r="E14" s="3">
-        <v>0.81911972792365972</v>
+        <v>0.69789373219964046</v>
       </c>
       <c r="F14" s="4">
         <v>100.3702</v>
@@ -1063,7 +1063,7 @@
         <v>-4.43</v>
       </c>
       <c r="H14" s="3">
-        <v>1.123686782609733</v>
+        <v>1.0856272442843871</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1081,7 +1081,7 @@
         <v>14.5</v>
       </c>
       <c r="E15" s="3">
-        <v>1.0967791068645418</v>
+        <v>0.94345491620477551</v>
       </c>
       <c r="F15" s="4">
         <v>101.7276</v>
@@ -1090,7 +1090,7 @@
         <v>17.875299999999999</v>
       </c>
       <c r="H15" s="3">
-        <v>1.4611374775126127</v>
+        <v>1.412936773023062</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>6.1</v>
       </c>
       <c r="E16" s="3">
-        <v>1.3943642857036331</v>
+        <v>1.2051764677801309</v>
       </c>
       <c r="F16" s="4">
         <v>104.8892</v>
@@ -1117,7 +1117,7 @@
         <v>4.202</v>
       </c>
       <c r="H16" s="3">
-        <v>1.8254992181859189</v>
+        <v>1.7659609555565676</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,7 +1135,7 @@
         <v>5.7</v>
       </c>
       <c r="E17" s="3">
-        <v>1.7024517951614557</v>
+        <v>1.4736930522587703</v>
       </c>
       <c r="F17" s="4">
         <v>107.2655</v>
@@ -1144,7 +1144,7 @@
         <v>6.6253000000000002</v>
       </c>
       <c r="H17" s="3">
-        <v>2.2067329500051924</v>
+        <v>2.134677603373361</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>5.8</v>
       </c>
       <c r="E18" s="3">
-        <v>2.0145591882799669</v>
+        <v>1.7426985996813951</v>
       </c>
       <c r="F18" s="4">
         <v>107.2559</v>
@@ -1170,7 +1170,7 @@
         <v>6.8602999999999996</v>
       </c>
       <c r="H18" s="3">
-        <v>2.5962849313346079</v>
+        <v>2.5105870523646758</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
         <v>6.3</v>
       </c>
       <c r="E19" s="3">
-        <v>2.3267024857291481</v>
+        <v>2.0085284819310445</v>
       </c>
       <c r="F19" s="4">
         <v>109.6559</v>
@@ -1197,7 +1197,7 @@
         <v>7.7937000000000003</v>
       </c>
       <c r="H19" s="3">
-        <v>2.9883630249445865</v>
+        <v>2.8879962774196373</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1215,7 +1215,7 @@
         <v>2.4</v>
       </c>
       <c r="E20" s="3">
-        <v>2.6372636086863062</v>
+        <v>2.2700538842659577</v>
       </c>
       <c r="F20" s="4">
         <v>109.85850000000001</v>
@@ -1224,7 +1224,7 @@
         <v>4.7375999999999996</v>
       </c>
       <c r="H20" s="3">
-        <v>3.3798401030234642</v>
+        <v>3.2639308240196421</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,10 +1239,10 @@
         <v>107.7</v>
       </c>
       <c r="D21" s="3">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="E21" s="3">
-        <v>2.9471077892751674</v>
+        <v>2.5288281616431667</v>
       </c>
       <c r="F21" s="4">
         <v>110.06610000000001</v>
@@ -1251,7 +1251,7 @@
         <v>2.6109</v>
       </c>
       <c r="H21" s="3">
-        <v>3.7705923733689861</v>
+        <v>3.6384823024726991</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>108.16759999999999</v>
       </c>
       <c r="D22" s="3">
@@ -1270,10 +1270,10 @@
       <c r="E22" s="3">
         <v>2.7864858853420369</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>110.9212</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>3.42</v>
       </c>
       <c r="H22" s="3">
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -1503,100 +1503,103 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>27.67</v>
+        <v>27.668769790252508</v>
       </c>
       <c r="D2" s="3">
-        <v>-47.9</v>
+        <v>-47.901092287475542</v>
       </c>
       <c r="E2" s="3">
-        <v>-5.24</v>
+        <v>-5.2373137437346351</v>
       </c>
       <c r="F2" s="7">
-        <v>14787.1</v>
+        <v>14787.099999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>8.11</v>
+        <v>8.114886003797551</v>
       </c>
       <c r="H2" s="3">
-        <v>40.79</v>
+        <v>40.790760080333939</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <f>A2</f>
         <v>2018</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>85.7</v>
+        <v>85.697911715071513</v>
       </c>
       <c r="D3" s="3">
-        <v>-11.34</v>
+        <v>-11.339105451485631</v>
       </c>
       <c r="E3" s="3">
-        <v>-4.22</v>
+        <v>-4.2223830593332803</v>
       </c>
       <c r="F3" s="7">
         <v>24147.4</v>
       </c>
       <c r="G3" s="3">
-        <v>1.9</v>
+        <v>1.901006544310424</v>
       </c>
       <c r="H3" s="3">
-        <v>53.45</v>
+        <v>53.454517026549567</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3</f>
         <v>2018</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="3">
-        <v>135.56</v>
+        <v>135.56443603899848</v>
       </c>
       <c r="D4" s="3">
-        <v>-2.63</v>
+        <v>-2.6258541814626279</v>
       </c>
       <c r="E4" s="3">
-        <v>-2.63</v>
+        <v>-2.6288234112293019</v>
       </c>
       <c r="F4" s="7">
         <v>32753.599999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>0.26</v>
+        <v>0.263349860427331</v>
       </c>
       <c r="H4" s="3">
-        <v>68.08</v>
+        <v>68.075934942135191</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f>A4</f>
         <v>2018</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" s="3">
-        <v>49.13</v>
+        <v>49.127270459994804</v>
       </c>
       <c r="D5" s="3">
-        <v>34.36</v>
+        <v>34.359180203467645</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.43</v>
+        <v>-0.43093554368684567</v>
       </c>
       <c r="F5" s="7">
         <v>18062.650000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>6.49</v>
+        <v>6.487409681740175</v>
       </c>
       <c r="H5" s="3">
-        <v>84.74</v>
+        <v>84.735522331308047</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,100 +1610,103 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>31.82</v>
+        <v>31.8154372066601</v>
       </c>
       <c r="D6" s="3">
-        <v>14.99</v>
+        <v>14.986815271665721</v>
       </c>
       <c r="E6" s="3">
-        <v>2.4</v>
+        <v>2.3969816547985459</v>
       </c>
       <c r="F6" s="7">
-        <v>15372.15</v>
+        <v>15372.149999999998</v>
       </c>
       <c r="G6" s="3">
-        <v>3.96</v>
+        <v>3.956489101987537</v>
       </c>
       <c r="H6" s="3">
-        <v>103.47</v>
+        <v>103.47140483260931</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f>A6</f>
         <v>2019</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>68.790000000000006</v>
+        <v>68.789857492696598</v>
       </c>
       <c r="D7" s="3">
-        <v>-19.73</v>
+        <v>-19.72983224911107</v>
       </c>
       <c r="E7" s="3">
-        <v>5.9</v>
+        <v>5.9023731180733021</v>
       </c>
       <c r="F7" s="7">
         <v>24880.32</v>
       </c>
       <c r="G7" s="3">
-        <v>3.04</v>
+        <v>3.0351921946047966</v>
       </c>
       <c r="H7" s="3">
-        <v>124.27</v>
+        <v>124.2728030141742</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f>A7</f>
         <v>2019</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>199.43</v>
+        <v>199.42877071307231</v>
       </c>
       <c r="D8" s="3">
-        <v>47.11</v>
+        <v>47.109947520234343</v>
       </c>
       <c r="E8" s="3">
-        <v>10.14</v>
+        <v>10.140552425994395</v>
       </c>
       <c r="F8" s="7">
-        <v>33263.480000000003</v>
+        <v>33263.479999999996</v>
       </c>
       <c r="G8" s="3">
-        <v>1.56</v>
+        <v>1.5567143764349423</v>
       </c>
       <c r="H8" s="3">
-        <v>147.07</v>
+        <v>147.0667406218063</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f>A8</f>
         <v>2019</v>
       </c>
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="3">
-        <v>48.13</v>
+        <v>48.130159277225545</v>
       </c>
       <c r="D9" s="3">
-        <v>-2.0299999999999998</v>
+        <v>-2.0296490593370686</v>
       </c>
       <c r="E9" s="3">
-        <v>15.15</v>
+        <v>15.150813030064304</v>
       </c>
       <c r="F9" s="7">
         <v>18396.02</v>
       </c>
       <c r="G9" s="3">
-        <v>1.85</v>
+        <v>1.845631731778008</v>
       </c>
       <c r="H9" s="3">
-        <v>171.7</v>
+        <v>171.70446789454695</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1711,26 +1717,27 @@
         <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>17.809999999999999</v>
+        <v>17.811176933114201</v>
       </c>
       <c r="D10" s="3">
-        <v>-44.02</v>
+        <v>-44.017186319269911</v>
       </c>
       <c r="E10" s="3">
-        <v>21</v>
+        <v>20.995554253719412</v>
       </c>
       <c r="F10" s="7">
         <v>11730.33</v>
       </c>
       <c r="G10" s="3">
-        <v>-23.69</v>
+        <v>-23.691025653535768</v>
       </c>
       <c r="H10" s="3">
-        <v>197.95</v>
+        <v>197.94629130503415</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f>A10</f>
         <v>2020</v>
       </c>
       <c r="B11" s="2">
@@ -1739,68 +1746,70 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>27.73</v>
+        <v>27.726437631590223</v>
       </c>
       <c r="F11" s="7">
         <v>133.88999999999999</v>
       </c>
       <c r="G11" s="3">
-        <v>-99.46</v>
+        <v>-99.461863834548751</v>
       </c>
       <c r="H11" s="3">
-        <v>225.45</v>
+        <v>225.44635555330419</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f>A11</f>
         <v>2020</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
       <c r="C12" s="3">
-        <v>49.57</v>
+        <v>49.573869385726198</v>
       </c>
       <c r="D12" s="3">
-        <v>-75.14</v>
+        <v>-75.142067411602071</v>
       </c>
       <c r="E12" s="3">
-        <v>35.35</v>
+        <v>35.354491735449123</v>
       </c>
       <c r="F12" s="7">
         <v>5879.28</v>
       </c>
       <c r="G12" s="3">
-        <v>-82.33</v>
+        <v>-82.32512052256709</v>
       </c>
       <c r="H12" s="3">
-        <v>253.72</v>
+        <v>253.72028201629422</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f>A12</f>
         <v>2020</v>
       </c>
       <c r="B13" s="2">
         <v>4</v>
       </c>
       <c r="C13" s="3">
-        <v>14.9</v>
+        <v>14.899192567919101</v>
       </c>
       <c r="D13" s="3">
-        <v>-69.040000000000006</v>
+        <v>-69.043957485989111</v>
       </c>
       <c r="E13" s="3">
-        <v>43.87</v>
+        <v>43.873416113548757</v>
       </c>
       <c r="F13" s="7">
         <v>2043.28</v>
       </c>
       <c r="G13" s="3">
-        <v>-88.89</v>
+        <v>-88.892814858866203</v>
       </c>
       <c r="H13" s="3">
-        <v>282.08</v>
+        <v>282.08062443382403</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,98 +1820,101 @@
         <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>6.42</v>
+        <v>6.4217446105582292</v>
       </c>
       <c r="D14" s="3">
-        <v>-63.95</v>
+        <v>-63.945422390257413</v>
       </c>
       <c r="E14" s="3">
-        <v>53.21</v>
+        <v>53.207849964674871</v>
       </c>
       <c r="F14" s="7">
-        <v>1325.14</v>
+        <v>1325.1399999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>-88.7</v>
+        <v>-88.703301612145609</v>
       </c>
       <c r="H14" s="3">
-        <v>309.63</v>
+        <v>309.62990816912662</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f>A14</f>
         <v>2021</v>
       </c>
       <c r="B15" s="2">
         <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>28.26</v>
+        <v>28.25876220639897</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>63.21</v>
+        <v>63.211859129113492</v>
       </c>
       <c r="F15" s="7">
-        <v>4485.8900000000003</v>
+        <v>4485.8899999999994</v>
       </c>
       <c r="G15" s="3">
-        <v>3250.43</v>
+        <v>3250.4294570169541</v>
       </c>
       <c r="H15" s="3">
-        <v>335.24</v>
+        <v>335.23880018587704</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f>A15</f>
         <v>2021</v>
       </c>
       <c r="B16" s="2">
         <v>3</v>
       </c>
       <c r="C16" s="3">
-        <v>77.83</v>
+        <v>77.834351452823896</v>
       </c>
       <c r="D16" s="3">
-        <v>57.01</v>
+        <v>57.006811082684486</v>
       </c>
       <c r="E16" s="3">
-        <v>73.67</v>
+        <v>73.666288651928809</v>
       </c>
       <c r="F16" s="7">
-        <v>16187.97</v>
+        <v>16187.970000000001</v>
       </c>
       <c r="G16" s="3">
-        <v>175.34</v>
+        <v>175.33932726456305</v>
       </c>
       <c r="H16" s="3">
-        <v>357.53</v>
+        <v>357.52900919163704</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f>A16</f>
         <v>2021</v>
       </c>
       <c r="B17" s="2">
         <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>52.1</v>
+        <v>52.097532905893402</v>
       </c>
       <c r="D17" s="3">
-        <v>249.67</v>
+        <v>249.6668203219929</v>
       </c>
       <c r="E17" s="3">
-        <v>84.31</v>
+        <v>84.312476166229331</v>
       </c>
       <c r="F17" s="7">
-        <v>12904.38</v>
+        <v>12904.380000000001</v>
       </c>
       <c r="G17" s="3">
-        <v>531.54999999999995</v>
+        <v>531.55221017188057</v>
       </c>
       <c r="H17" s="3">
-        <v>376.94</v>
+        <v>376.94423805448781</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1913,100 +1925,103 @@
         <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>34.36</v>
+        <v>34.361660418196422</v>
       </c>
       <c r="D18" s="3">
-        <v>435.08</v>
+        <v>435.08294866944937</v>
       </c>
       <c r="E18" s="3">
-        <v>94.88</v>
+        <v>94.881347131642784</v>
       </c>
       <c r="F18" s="7">
         <v>11891.92</v>
       </c>
       <c r="G18" s="3">
-        <v>797.41</v>
+        <v>797.40857569766229</v>
       </c>
       <c r="H18" s="3">
-        <v>393.81</v>
+        <v>393.81432109130623</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f>A18</f>
         <v>2022</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>73.31</v>
+        <v>73.313385768168487</v>
       </c>
       <c r="D19" s="3">
-        <v>159.44</v>
+        <v>159.43594143542234</v>
       </c>
       <c r="E19" s="3">
-        <v>105.21</v>
+        <v>105.20717347289425</v>
       </c>
       <c r="F19" s="7">
         <v>23982.69</v>
       </c>
       <c r="G19" s="3">
-        <v>434.63</v>
+        <v>434.62501309662082</v>
       </c>
       <c r="H19" s="3">
-        <v>408.57</v>
+        <v>408.56572260154246</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f>A19</f>
         <v>2022</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
       <c r="C20" s="3">
-        <v>162.88</v>
+        <v>162.87702368662568</v>
       </c>
       <c r="D20" s="3">
-        <v>109.26</v>
+        <v>109.26110470047009</v>
       </c>
       <c r="E20" s="3">
-        <v>115.34</v>
+        <v>115.33685311566997</v>
       </c>
       <c r="F20" s="7">
         <v>32331.61</v>
       </c>
       <c r="G20" s="3">
-        <v>99.73</v>
+        <v>99.726154669177163</v>
       </c>
       <c r="H20" s="3">
-        <v>421.88</v>
+        <v>421.87715329377568</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f>A20</f>
         <v>2022</v>
       </c>
       <c r="B21" s="2">
         <v>4</v>
       </c>
       <c r="C21" s="3">
-        <v>85.2</v>
+        <v>85.200849304212895</v>
       </c>
       <c r="D21" s="3">
-        <v>63.54</v>
+        <v>63.541044175960891</v>
       </c>
       <c r="E21" s="3">
-        <v>125.35</v>
+        <v>125.35117696563272</v>
       </c>
       <c r="F21" s="7">
         <v>18931.97</v>
       </c>
       <c r="G21" s="3">
-        <v>46.71</v>
+        <v>46.70964432231537</v>
       </c>
       <c r="H21" s="3">
-        <v>434.44</v>
+        <v>434.4436109331445</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2017,22 +2032,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="3">
-        <v>59.77</v>
+        <v>59.771273559999997</v>
       </c>
       <c r="D22" s="3">
-        <v>73.95</v>
+        <v>73.947570730161118</v>
       </c>
       <c r="E22" s="3">
-        <v>135.33000000000001</v>
+        <v>135.32713858568576</v>
       </c>
       <c r="F22" s="7">
         <v>17201.34</v>
       </c>
       <c r="G22" s="3">
-        <v>44.65</v>
+        <v>44.64728992458744</v>
       </c>
       <c r="H22" s="3">
-        <v>446.76</v>
+        <v>446.758748910647</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2854,8 +2869,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -2908,23 +2923,24 @@
         <v>41106</v>
       </c>
       <c r="D2" s="3">
-        <v>-13.56</v>
+        <v>-13.5556864064603</v>
       </c>
       <c r="E2" s="3">
-        <v>-5.71</v>
+        <v>-5.7117579373561496</v>
       </c>
       <c r="F2" s="5">
         <v>13717834</v>
       </c>
       <c r="G2" s="3">
-        <v>6.02</v>
+        <v>6.0207827362256383</v>
       </c>
       <c r="H2" s="3">
-        <v>22.63</v>
+        <v>22.63397582416059</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
+        <f>A2</f>
         <v>2018</v>
       </c>
       <c r="B3" s="2">
@@ -2934,23 +2950,24 @@
         <v>106743</v>
       </c>
       <c r="D3" s="3">
-        <v>9.09</v>
+        <v>9.0895154779302878</v>
       </c>
       <c r="E3" s="3">
-        <v>-4.99</v>
+        <v>-4.9884669875322372</v>
       </c>
       <c r="F3" s="5">
         <v>23420732</v>
       </c>
       <c r="G3" s="3">
-        <v>-0.41</v>
+        <v>-0.40603894750588232</v>
       </c>
       <c r="H3" s="3">
-        <v>30.67</v>
+        <v>30.665393449320554</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
+        <f>A3</f>
         <v>2018</v>
       </c>
       <c r="B4" s="2">
@@ -2960,23 +2977,24 @@
         <v>180029</v>
       </c>
       <c r="D4" s="3">
-        <v>-13.82</v>
+        <v>-13.820900809474345</v>
       </c>
       <c r="E4" s="3">
-        <v>-3.8</v>
+        <v>-3.7978264395180745</v>
       </c>
       <c r="F4" s="5">
         <v>29128315</v>
       </c>
       <c r="G4" s="3">
-        <v>-2.15</v>
+        <v>-2.1503905493510223</v>
       </c>
       <c r="H4" s="3">
-        <v>40.090000000000003</v>
+        <v>40.086489629210128</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
+        <f>A4</f>
         <v>2018</v>
       </c>
       <c r="B5" s="2">
@@ -2986,19 +3004,19 @@
         <v>53301</v>
       </c>
       <c r="D5" s="3">
-        <v>-11.44</v>
+        <v>-11.443951552609278</v>
       </c>
       <c r="E5" s="3">
-        <v>-2.0699999999999998</v>
+        <v>-2.0676213244499921</v>
       </c>
       <c r="F5" s="5">
         <v>16541531</v>
       </c>
       <c r="G5" s="3">
-        <v>5.73</v>
+        <v>5.7302201158246024</v>
       </c>
       <c r="H5" s="3">
-        <v>50.98</v>
+        <v>50.97918343231526</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3012,23 +3030,24 @@
         <v>44018</v>
       </c>
       <c r="D6" s="3">
-        <v>7.08</v>
+        <v>7.0841239721695093</v>
       </c>
       <c r="E6" s="3">
-        <v>0.27</v>
+        <v>0.26809890505445672</v>
       </c>
       <c r="F6" s="5">
         <v>14225722</v>
       </c>
       <c r="G6" s="3">
-        <v>3.7</v>
+        <v>3.7023920831816381</v>
       </c>
       <c r="H6" s="3">
-        <v>63.4</v>
+        <v>63.3989958770103</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
+        <f>A6</f>
         <v>2019</v>
       </c>
       <c r="B7" s="2">
@@ -3038,23 +3057,24 @@
         <v>87028</v>
       </c>
       <c r="D7" s="3">
-        <v>-18.47</v>
+        <v>-18.469595195937906</v>
       </c>
       <c r="E7" s="3">
-        <v>3.27</v>
+        <v>3.2694245899851193</v>
       </c>
       <c r="F7" s="5">
         <v>23899130</v>
       </c>
       <c r="G7" s="3">
-        <v>2.04</v>
+        <v>2.0426261655698941</v>
       </c>
       <c r="H7" s="3">
-        <v>77.37</v>
+        <v>77.373167379596808</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
+        <f>A7</f>
         <v>2019</v>
       </c>
       <c r="B8" s="2">
@@ -3064,23 +3084,24 @@
         <v>195932</v>
       </c>
       <c r="D8" s="3">
-        <v>8.83</v>
+        <v>8.8335768126246208</v>
       </c>
       <c r="E8" s="3">
-        <v>7</v>
+        <v>7.0007060869987896</v>
       </c>
       <c r="F8" s="5">
         <v>28836788</v>
       </c>
       <c r="G8" s="3">
-        <v>-1</v>
+        <v>-1.0008371579337871</v>
       </c>
       <c r="H8" s="3">
-        <v>92.89</v>
+        <v>92.891627979005207</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
+        <f>A8</f>
         <v>2019</v>
       </c>
       <c r="B9" s="2">
@@ -3090,19 +3111,19 @@
         <v>65539</v>
       </c>
       <c r="D9" s="3">
-        <v>22.96</v>
+        <v>22.960169602821701</v>
       </c>
       <c r="E9" s="3">
-        <v>11.51</v>
+        <v>11.512706865386061</v>
       </c>
       <c r="F9" s="5">
         <v>16547511</v>
       </c>
       <c r="G9" s="3">
-        <v>0.04</v>
+        <v>3.6151429997621776E-2</v>
       </c>
       <c r="H9" s="3">
-        <v>109.9</v>
+        <v>109.89722612590715</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3113,26 +3134,27 @@
         <v>1</v>
       </c>
       <c r="C10" s="5">
-        <v>19505</v>
+        <v>19505.209346095799</v>
       </c>
       <c r="D10" s="3">
-        <v>-55.69</v>
+        <v>-55.688106351729296</v>
       </c>
       <c r="E10" s="3">
-        <v>16.86</v>
+        <v>16.857335938641043</v>
       </c>
       <c r="F10" s="5">
         <v>10557630</v>
       </c>
       <c r="G10" s="3">
-        <v>-25.78</v>
+        <v>-25.78492676856753</v>
       </c>
       <c r="H10" s="3">
-        <v>128.27000000000001</v>
+        <v>128.2741274802637</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
+        <f>A10</f>
         <v>2020</v>
       </c>
       <c r="B11" s="2">
@@ -3141,20 +3163,21 @@
       <c r="C11" s="5"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3">
-        <v>23.09</v>
+        <v>23.093656984468744</v>
       </c>
       <c r="F11" s="5">
         <v>204272</v>
       </c>
       <c r="G11" s="3">
-        <v>-99.15</v>
+        <v>-99.145274325885495</v>
       </c>
       <c r="H11" s="3">
-        <v>147.84</v>
+        <v>147.83783453035099</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
+        <f>A11</f>
         <v>2020</v>
       </c>
       <c r="B12" s="2">
@@ -3164,23 +3187,24 @@
         <v>67392</v>
       </c>
       <c r="D12" s="3">
-        <v>-65.599999999999994</v>
+        <v>-65.604393360961964</v>
       </c>
       <c r="E12" s="3">
-        <v>30.24</v>
+        <v>30.235392779142689</v>
       </c>
       <c r="F12" s="5">
         <v>6044625</v>
       </c>
       <c r="G12" s="3">
-        <v>-79.040000000000006</v>
+        <v>-79.038494162387295</v>
       </c>
       <c r="H12" s="3">
-        <v>168.31</v>
+        <v>168.30756285553963</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
+        <f>A12</f>
         <v>2020</v>
       </c>
       <c r="B13" s="2">
@@ -3190,19 +3214,19 @@
         <v>17313</v>
       </c>
       <c r="D13" s="3">
-        <v>-73.58</v>
+        <v>-73.583667739819035</v>
       </c>
       <c r="E13" s="3">
-        <v>38.28</v>
+        <v>38.281832563321117</v>
       </c>
       <c r="F13" s="5">
         <v>2126576</v>
       </c>
       <c r="G13" s="3">
-        <v>-87.15</v>
+        <v>-87.148665439775201</v>
       </c>
       <c r="H13" s="3">
-        <v>189.25</v>
+        <v>189.24816359216507</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,26 +3237,27 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>5549</v>
+        <v>5548.6834651546005</v>
       </c>
       <c r="D14" s="3">
-        <v>-71.55</v>
+        <v>-71.552812550226562</v>
       </c>
       <c r="E14" s="3">
-        <v>47.17</v>
+        <v>47.172365711324694</v>
       </c>
       <c r="F14" s="5">
         <v>1214374</v>
       </c>
       <c r="G14" s="3">
-        <v>-88.5</v>
+        <v>-88.497664722101462</v>
       </c>
       <c r="H14" s="3">
-        <v>210.07</v>
+        <v>210.06989659092662</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
+        <f>A14</f>
         <v>2021</v>
       </c>
       <c r="B15" s="2">
@@ -3243,20 +3268,21 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>56.78</v>
+        <v>56.776465659784627</v>
       </c>
       <c r="F15" s="5">
         <v>4208726</v>
       </c>
       <c r="G15" s="3">
-        <v>1960.35</v>
+        <v>1960.3538419362419</v>
       </c>
       <c r="H15" s="3">
-        <v>230.01</v>
+        <v>230.01027368437857</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <f>A15</f>
         <v>2021</v>
       </c>
       <c r="B16" s="2">
@@ -3266,23 +3292,24 @@
         <v>83119</v>
       </c>
       <c r="D16" s="3">
-        <v>23.34</v>
+        <v>23.336597815764492</v>
       </c>
       <c r="E16" s="3">
-        <v>66.89</v>
+        <v>66.889402608918658</v>
       </c>
       <c r="F16" s="5">
         <v>14299445</v>
       </c>
       <c r="G16" s="3">
-        <v>136.56</v>
+        <v>136.56463386893316</v>
       </c>
       <c r="H16" s="3">
-        <v>248.12</v>
+        <v>248.12020197925457</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
+        <f>A16</f>
         <v>2021</v>
       </c>
       <c r="B17" s="2">
@@ -3292,19 +3319,19 @@
         <v>46428</v>
       </c>
       <c r="D17" s="3">
-        <v>168.17</v>
+        <v>168.16842834863976</v>
       </c>
       <c r="E17" s="3">
-        <v>77.27</v>
+        <v>77.270961467907171</v>
       </c>
       <c r="F17" s="5">
         <v>11458258</v>
       </c>
       <c r="G17" s="3">
-        <v>438.81</v>
+        <v>438.81253244652436</v>
       </c>
       <c r="H17" s="3">
-        <v>264.52999999999997</v>
+        <v>264.53205331244573</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -3318,23 +3345,24 @@
         <v>31131</v>
       </c>
       <c r="D18" s="3">
-        <v>461.05</v>
+        <v>461.05200802137682</v>
       </c>
       <c r="E18" s="3">
-        <v>87.65</v>
+        <v>87.653706642934807</v>
       </c>
       <c r="F18" s="5">
         <v>9720263</v>
       </c>
       <c r="G18" s="3">
-        <v>700.43</v>
+        <v>700.43405079489514</v>
       </c>
       <c r="H18" s="3">
-        <v>279.31</v>
+        <v>279.30847729077419</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
+        <f>A18</f>
         <v>2022</v>
       </c>
       <c r="B19" s="2">
@@ -3344,23 +3372,24 @@
         <v>75390</v>
       </c>
       <c r="D19" s="3">
-        <v>203.2</v>
+        <v>203.19726523225418</v>
       </c>
       <c r="E19" s="3">
-        <v>97.83</v>
+        <v>97.827013456986691</v>
       </c>
       <c r="F19" s="5">
         <v>20592825</v>
       </c>
       <c r="G19" s="3">
-        <v>389.29</v>
+        <v>389.28880140926259</v>
       </c>
       <c r="H19" s="3">
-        <v>292.62</v>
+        <v>292.62104882052097</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <f>A19</f>
         <v>2022</v>
       </c>
       <c r="B20" s="2">
@@ -3370,23 +3399,24 @@
         <v>154391</v>
       </c>
       <c r="D20" s="3">
-        <v>85.75</v>
+        <v>85.746941132593022</v>
       </c>
       <c r="E20" s="3">
-        <v>107.81</v>
+        <v>107.81363117140945</v>
       </c>
       <c r="F20" s="5">
         <v>25707266</v>
       </c>
       <c r="G20" s="3">
-        <v>79.78</v>
+        <v>79.778068309644183</v>
       </c>
       <c r="H20" s="3">
-        <v>304.89999999999998</v>
+        <v>304.90454629140709</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
+        <f>A20</f>
         <v>2022</v>
       </c>
       <c r="B21" s="2">
@@ -3396,19 +3426,19 @@
         <v>62785</v>
       </c>
       <c r="D21" s="3">
-        <v>35.229999999999997</v>
+        <v>35.230895149478769</v>
       </c>
       <c r="E21" s="3">
-        <v>117.7</v>
+        <v>117.70216545490926</v>
       </c>
       <c r="F21" s="5">
         <v>15638928</v>
       </c>
       <c r="G21" s="3">
-        <v>36.49</v>
+        <v>36.486087152165702</v>
       </c>
       <c r="H21" s="3">
-        <v>316.64999999999998</v>
+        <v>316.65416543852155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -3419,22 +3449,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>59254</v>
+        <v>59253.599999999999</v>
       </c>
       <c r="D22" s="3">
-        <v>90.34</v>
+        <v>90.33632070926086</v>
       </c>
       <c r="E22" s="3">
-        <v>127.57</v>
+        <v>127.56743029491804</v>
       </c>
       <c r="F22" s="5">
         <v>13725573</v>
       </c>
       <c r="G22" s="3">
-        <v>41.21</v>
+        <v>41.205778074111791</v>
       </c>
       <c r="H22" s="3">
-        <v>328.22</v>
+        <v>328.22439794821469</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4257,7 +4287,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H25"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -4313,7 +4343,7 @@
         <v>-7.1182218714228256</v>
       </c>
       <c r="E2" s="3">
-        <v>-3.8783159188423983</v>
+        <v>-3.3761168555109431</v>
       </c>
       <c r="F2" s="5">
         <v>125529721</v>
@@ -4322,7 +4352,7 @@
         <v>9.1727100979684728</v>
       </c>
       <c r="H2" s="3">
-        <v>-1.4759510242486988</v>
+        <v>-1.0643289403899887</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,7 +4370,7 @@
         <v>-7.3458449474307912</v>
       </c>
       <c r="E3" s="3">
-        <v>-5.0170676723350383</v>
+        <v>-4.5506801355674744</v>
       </c>
       <c r="F3" s="5">
         <v>156459570</v>
@@ -4349,7 +4379,7 @@
         <v>-0.42320698845422777</v>
       </c>
       <c r="H3" s="3">
-        <v>-1.4178955628024219</v>
+        <v>-1.0356260131611286</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4367,7 +4397,7 @@
         <v>-11.876513963965362</v>
       </c>
       <c r="E4" s="3">
-        <v>-5.760683336526351</v>
+        <v>-5.3453150474154274</v>
       </c>
       <c r="F4" s="5">
         <v>385672944</v>
@@ -4376,7 +4406,7 @@
         <v>-3.8516507337941319</v>
       </c>
       <c r="H4" s="3">
-        <v>-1.2010999952733623</v>
+        <v>-0.86064782557303843</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,7 +4424,7 @@
         <v>-6.5687036778562469</v>
       </c>
       <c r="E5" s="3">
-        <v>-6.0340886850458322</v>
+        <v>-5.6882577321516097</v>
       </c>
       <c r="F5" s="5">
         <v>128477002</v>
@@ -4403,7 +4433,7 @@
         <v>-0.18786917919737522</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.79400046581190298</v>
+        <v>-0.51054382901764417</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -4420,7 +4450,7 @@
         <v>-21.00782170889719</v>
       </c>
       <c r="E6" s="3">
-        <v>-5.7660318856651251</v>
+        <v>-5.5118263301956718</v>
       </c>
       <c r="F6" s="5">
         <v>129153915</v>
@@ -4429,7 +4459,7 @@
         <v>2.8871202541747021</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.16668971278000205</v>
+        <v>4.1667148295490314E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,7 +4477,7 @@
         <v>-48.048530146359155</v>
       </c>
       <c r="E7" s="3">
-        <v>-4.8855952405263805</v>
+        <v>-4.7488892606833302</v>
       </c>
       <c r="F7" s="5">
         <v>158627230</v>
@@ -4456,7 +4486,7 @@
         <v>1.3854441757701341</v>
       </c>
       <c r="H7" s="3">
-        <v>0.71111835751451624</v>
+        <v>0.82316794981293862</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4474,7 +4504,7 @@
         <v>-73.69568355943106</v>
       </c>
       <c r="E8" s="3">
-        <v>-3.3313871704112681</v>
+        <v>-3.3419999398619891</v>
       </c>
       <c r="F8" s="5">
         <v>378888595</v>
@@ -4483,7 +4513,7 @@
         <v>-1.7590938398831524</v>
       </c>
       <c r="H8" s="3">
-        <v>1.8716184699931744</v>
+        <v>1.862919827172449</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4501,7 +4531,7 @@
         <v>-17.669135256691838</v>
       </c>
       <c r="E9" s="3">
-        <v>-1.0689929304176036</v>
+        <v>-1.2607740595326005</v>
       </c>
       <c r="F9" s="5">
         <v>127238397</v>
@@ -4510,7 +4540,7 @@
         <v>-0.96406748345513327</v>
       </c>
       <c r="H9" s="3">
-        <v>3.3474268032139047</v>
+        <v>3.190235454652993</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4527,7 +4557,7 @@
         <v>-9.4732253110965221</v>
       </c>
       <c r="E10" s="3">
-        <v>1.8920245391136605</v>
+        <v>1.4812016362416538</v>
       </c>
       <c r="F10" s="5">
         <v>100295749</v>
@@ -4536,7 +4566,7 @@
         <v>-22.344011793990138</v>
       </c>
       <c r="H10" s="3">
-        <v>5.1688903405409672</v>
+        <v>4.8321637479916326</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4554,7 +4584,7 @@
         <v>-69.21886265657966</v>
       </c>
       <c r="E11" s="3">
-        <v>5.5317272088876503</v>
+        <v>4.860085177649367</v>
       </c>
       <c r="F11" s="5">
         <v>37014146</v>
@@ -4563,7 +4593,7 @@
         <v>-76.665957036506285</v>
       </c>
       <c r="H11" s="3">
-        <v>7.3636613814094538</v>
+        <v>6.8131571835891123</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4581,7 +4611,7 @@
         <v>-26.614554690439661</v>
       </c>
       <c r="E12" s="3">
-        <v>9.82307376845311</v>
+        <v>8.8451880780370455</v>
       </c>
       <c r="F12" s="5">
         <v>293170232</v>
@@ -4590,7 +4620,7 @@
         <v>-22.623632416277928</v>
       </c>
       <c r="H12" s="3">
-        <v>9.9421966614203736</v>
+        <v>9.1406831281324372</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4608,7 +4638,7 @@
         <v>-73.707866958048115</v>
       </c>
       <c r="E13" s="3">
-        <v>14.692303788692865</v>
+        <v>13.359522508354802</v>
       </c>
       <c r="F13" s="5">
         <v>62929097</v>
@@ -4617,7 +4647,7 @@
         <v>-50.54236890456896</v>
       </c>
       <c r="H13" s="3">
-        <v>12.862434404663537</v>
+        <v>11.770034501921051</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -4634,7 +4664,7 @@
         <v>-54.743355580561612</v>
       </c>
       <c r="E14" s="3">
-        <v>20.042883322702931</v>
+        <v>18.30393830032245</v>
       </c>
       <c r="F14" s="5">
         <v>51693146</v>
@@ -4643,7 +4673,7 @@
         <v>-48.459285148765375</v>
       </c>
       <c r="H14" s="3">
-        <v>16.061959192055191</v>
+        <v>14.63665152803914</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4661,7 +4691,7 @@
         <v>91.695728496196608</v>
       </c>
       <c r="E15" s="3">
-        <v>25.723028316862614</v>
+        <v>23.524868167243302</v>
       </c>
       <c r="F15" s="5">
         <v>96645786</v>
@@ -4670,7 +4700,7 @@
         <v>161.10500023423478</v>
       </c>
       <c r="H15" s="3">
-        <v>19.438727602443315</v>
+        <v>17.637029177441836</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -4688,7 +4718,7 @@
         <v>37.555458594942117</v>
       </c>
       <c r="E16" s="3">
-        <v>31.534213318236677</v>
+        <v>28.823090263745115</v>
       </c>
       <c r="F16" s="5">
         <v>359950312</v>
@@ -4697,7 +4727,7 @@
         <v>22.778601887520409</v>
       </c>
       <c r="H16" s="3">
-        <v>22.850370436962873</v>
+        <v>20.628227460661265</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -4715,7 +4745,7 @@
         <v>307.27729798023501</v>
       </c>
       <c r="E17" s="3">
-        <v>37.319145811501969</v>
+        <v>34.041989532161246</v>
       </c>
       <c r="F17" s="5">
         <v>117883145</v>
@@ -4724,7 +4754,7 @@
         <v>87.326929226395862</v>
       </c>
       <c r="H17" s="3">
-        <v>26.2430599171437</v>
+        <v>23.556973870140052</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -4741,7 +4771,7 @@
         <v>102.19843049920856</v>
       </c>
       <c r="E18" s="3">
-        <v>42.924296559633277</v>
+        <v>39.030408645032047</v>
       </c>
       <c r="F18" s="5">
         <v>102560633</v>
@@ -4750,7 +4780,7 @@
         <v>98.402768908667298</v>
       </c>
       <c r="H18" s="3">
-        <v>29.562923409172228</v>
+        <v>26.371339882337608</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -4768,7 +4798,7 @@
         <v>69.496377471762699</v>
       </c>
       <c r="E19" s="3">
-        <v>48.364860170710855</v>
+        <v>43.807962342677925</v>
       </c>
       <c r="F19" s="5">
         <v>149802200</v>
@@ -4777,7 +4807,7 @@
         <v>55.001274447703288</v>
       </c>
       <c r="H19" s="3">
-        <v>32.794265697553179</v>
+        <v>29.05925319581101</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -4795,7 +4825,7 @@
         <v>24.012941666445652</v>
       </c>
       <c r="E20" s="3">
-        <v>53.693077586527188</v>
+        <v>48.433745379078147</v>
       </c>
       <c r="F20" s="5">
         <v>367155879</v>
@@ -4804,7 +4834,7 @@
         <v>2.0018226849043641</v>
       </c>
       <c r="H20" s="3">
-        <v>35.964416470228457</v>
+        <v>31.653661152258788</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,7 +4852,7 @@
         <v>-16.062491301765782</v>
       </c>
       <c r="E21" s="3">
-        <v>58.974396947187927</v>
+        <v>52.982907767667655</v>
       </c>
       <c r="F21" s="5">
         <v>126303148</v>
@@ -4831,16 +4861,34 @@
         <v>7.14266912373267</v>
       </c>
       <c r="H21" s="3">
-        <v>39.114584795608813</v>
+        <v>34.203724856661907</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1498052</v>
+      </c>
+      <c r="D22" s="3">
+        <v>30.741517805713325</v>
+      </c>
+      <c r="E22" s="3">
+        <v>57.515336519561004</v>
+      </c>
+      <c r="F22" s="5">
+        <v>117734683</v>
+      </c>
+      <c r="G22" s="3">
+        <v>14.795199245698875</v>
+      </c>
+      <c r="H22" s="3">
+        <v>36.740073014959236</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
@@ -5662,7 +5710,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H25"/>
+      <selection activeCell="H25" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -5718,7 +5766,7 @@
         <v>11.200035102301676</v>
       </c>
       <c r="E2" s="3">
-        <v>3.7196449051728599</v>
+        <v>5.5349750785459255</v>
       </c>
       <c r="F2" s="6">
         <v>7965303.0300000003</v>
@@ -5727,7 +5775,7 @@
         <v>11.266686970679274</v>
       </c>
       <c r="H2" s="3">
-        <v>1.8460194301257358</v>
+        <v>2.9548552768010108</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5745,7 +5793,7 @@
         <v>1.9144969721443639</v>
       </c>
       <c r="E3" s="3">
-        <v>4.0339942417567531</v>
+        <v>5.7198742638397393</v>
       </c>
       <c r="F3" s="6">
         <v>11097516.369999999</v>
@@ -5754,7 +5802,7 @@
         <v>8.1434501674888295</v>
       </c>
       <c r="H3" s="3">
-        <v>3.0479090032611991</v>
+        <v>4.0776744030208887</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5772,7 +5820,7 @@
         <v>-3.9400477762533526</v>
       </c>
       <c r="E4" s="3">
-        <v>4.8424905150614883</v>
+        <v>6.3439480910341466</v>
       </c>
       <c r="F4" s="6">
         <v>18941756.390000001</v>
@@ -5781,7 +5829,7 @@
         <v>3.9781532031210487</v>
       </c>
       <c r="H4" s="3">
-        <v>4.5827336950874402</v>
+        <v>5.4998505958698471</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5799,7 +5847,7 @@
         <v>-1.7504670848456305</v>
       </c>
       <c r="E5" s="3">
-        <v>6.2158517410299154</v>
+        <v>7.465948384999276</v>
       </c>
       <c r="F5" s="6">
         <v>8938381.8200000003</v>
@@ -5808,7 +5856,7 @@
         <v>3.9941556524567989</v>
       </c>
       <c r="H5" s="3">
-        <v>6.5092336362453924</v>
+        <v>7.2728148243805242</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5825,7 +5873,7 @@
         <v>2.8691424276017008</v>
       </c>
       <c r="E6" s="3">
-        <v>8.2193068491728116</v>
+        <v>9.1381994731882017</v>
       </c>
       <c r="F6" s="6">
         <v>8317465.4100000001</v>
@@ -5834,7 +5882,7 @@
         <v>4.4212050523833035</v>
       </c>
       <c r="H6" s="3">
-        <v>8.8857710945685096</v>
+        <v>9.4470469967150894</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5852,7 +5900,7 @@
         <v>6.0016644590283441</v>
       </c>
       <c r="E7" s="3">
-        <v>10.913105819734781</v>
+        <v>11.407265423385343</v>
       </c>
       <c r="F7" s="6">
         <v>11429924.810000001</v>
@@ -5861,7 +5909,7 @@
         <v>2.9953408394927328</v>
       </c>
       <c r="H7" s="3">
-        <v>11.769136414150376</v>
+        <v>12.07097785905326</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5879,7 +5927,7 @@
         <v>-7.6523697190438948</v>
       </c>
       <c r="E8" s="3">
-        <v>14.354154780196946</v>
+        <v>14.315792142721628</v>
       </c>
       <c r="F8" s="6">
         <v>19296877.260000002</v>
@@ -5888,7 +5936,7 @@
         <v>1.874804335396707</v>
       </c>
       <c r="H8" s="3">
-        <v>15.213329585308211</v>
+        <v>15.189897006359544</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5906,7 +5954,7 @@
         <v>-1.5479068701207521</v>
       </c>
       <c r="E9" s="3">
-        <v>18.596290207189988</v>
+        <v>17.903047037725262</v>
       </c>
       <c r="F9" s="6">
         <v>9021576.2200000007</v>
@@ -5915,7 +5963,7 @@
         <v>0.93075460050104919</v>
       </c>
       <c r="H9" s="3">
-        <v>19.266866976125073</v>
+        <v>18.843421760461226</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5932,7 +5980,7 @@
         <v>-32.182489830012692</v>
       </c>
       <c r="E10" s="3">
-        <v>23.679594499532563</v>
+        <v>22.194567413760847</v>
       </c>
       <c r="F10" s="6">
         <v>6440847.5199999996</v>
@@ -5941,7 +5989,7 @@
         <v>-22.562376847924881</v>
       </c>
       <c r="H10" s="3">
-        <v>23.969928376402827</v>
+        <v>23.062847510266238</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5959,7 +6007,7 @@
         <v>-88.225347295045935</v>
       </c>
       <c r="E11" s="3">
-        <v>29.631559932870008</v>
+        <v>27.203733730000582</v>
       </c>
       <c r="F11" s="6">
         <v>1261489.28</v>
@@ -5968,7 +6016,7 @@
         <v>-88.96327577853944</v>
       </c>
       <c r="H11" s="3">
-        <v>29.351233505708574</v>
+        <v>27.868274227707538</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5986,7 +6034,7 @@
         <v>8.5978127400417002</v>
       </c>
       <c r="E12" s="3">
-        <v>36.444764980141692</v>
+        <v>32.909940784839307</v>
       </c>
       <c r="F12" s="6">
         <v>10782999.890000001</v>
@@ -5995,7 +6043,7 @@
         <v>-44.120492944463074</v>
       </c>
       <c r="H12" s="3">
-        <v>35.410419392844204</v>
+        <v>33.25128611949421</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6013,7 +6061,7 @@
         <v>-71.767719745863928</v>
       </c>
       <c r="E13" s="3">
-        <v>44.038127547269525</v>
+        <v>39.220440201031195</v>
       </c>
       <c r="F13" s="6">
         <v>2649720.09</v>
@@ -6022,7 +6070,7 @@
         <v>-70.629078274306266</v>
       </c>
       <c r="H13" s="3">
-        <v>42.073176498308946</v>
+        <v>39.130447673581429</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6039,7 +6087,7 @@
         <v>-55.090717451174712</v>
       </c>
       <c r="E14" s="3">
-        <v>52.313161195025359</v>
+        <v>46.027288521302424</v>
       </c>
       <c r="F14" s="6">
         <v>2259815.7599999998</v>
@@ -6048,7 +6096,7 @@
         <v>-64.914310531605324</v>
       </c>
       <c r="H14" s="3">
-        <v>49.215488462391207</v>
+        <v>45.375966016009393</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -6066,7 +6114,7 @@
         <v>229.14610008712177</v>
       </c>
       <c r="E15" s="3">
-        <v>61.099000829622831</v>
+        <v>53.153174688412363</v>
       </c>
       <c r="F15" s="6">
         <v>5403894.9100000001</v>
@@ -6075,7 +6123,7 @@
         <v>328.37422367949091</v>
       </c>
       <c r="H15" s="3">
-        <v>56.642900016146513</v>
+        <v>51.789448569100877</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -6093,7 +6141,7 @@
         <v>-61.861707213767581</v>
       </c>
       <c r="E16" s="3">
-        <v>70.157653933121708</v>
+        <v>60.357588891387579</v>
       </c>
       <c r="F16" s="6">
         <v>16718291.619999999</v>
@@ -6102,7 +6150,7 @@
         <v>55.043047301746739</v>
       </c>
       <c r="H16" s="3">
-        <v>64.089624766259149</v>
+        <v>58.103571332336386</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -6120,7 +6168,7 @@
         <v>338.14687957694724</v>
       </c>
       <c r="E17" s="3">
-        <v>79.356157424617692</v>
+        <v>67.51001689762883</v>
       </c>
       <c r="F17" s="6">
         <v>8138682.8600000003</v>
@@ -6129,7 +6177,7 @@
         <v>207.15255134741426</v>
       </c>
       <c r="H17" s="3">
-        <v>71.459708396702979</v>
+        <v>64.223875789640431</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -6146,7 +6194,7 @@
         <v>207.07215365489196</v>
       </c>
       <c r="E18" s="3">
-        <v>88.479036122489688</v>
+        <v>74.403557414471166</v>
       </c>
       <c r="F18" s="6">
         <v>7045248.0599999996</v>
@@ -6155,7 +6203,7 @@
         <v>211.76205532790871</v>
       </c>
       <c r="H18" s="3">
-        <v>78.651542480536548</v>
+        <v>70.053990597418391</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -6173,7 +6221,7 @@
         <v>112.29859263826883</v>
       </c>
       <c r="E19" s="3">
-        <v>97.472559046461825</v>
+        <v>81.000457188424221</v>
       </c>
       <c r="F19" s="6">
         <v>11657125.26</v>
@@ -6182,7 +6230,7 @@
         <v>115.71709765170097</v>
       </c>
       <c r="H19" s="3">
-        <v>85.648326617662633</v>
+        <v>75.58687483429928</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6200,7 +6248,7 @@
         <v>185.80363969789784</v>
       </c>
       <c r="E20" s="3">
-        <v>106.35711591471596</v>
+        <v>87.345880838647886</v>
       </c>
       <c r="F20" s="6">
         <v>21026463.140000001</v>
@@ -6209,7 +6257,7 @@
         <v>25.769209067068545</v>
       </c>
       <c r="H20" s="3">
-        <v>92.51645447851358</v>
+        <v>80.904055119368664</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -6227,7 +6275,7 @@
         <v>-11.733743749559322</v>
       </c>
       <c r="E21" s="3">
-        <v>115.16236271642886</v>
+        <v>93.504554318958199</v>
       </c>
       <c r="F21" s="6">
         <v>10563173.24</v>
@@ -6236,16 +6284,34 @@
         <v>29.789714401035148</v>
       </c>
       <c r="H21" s="3">
-        <v>99.341112715418035</v>
+        <v>86.112139460972983</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="6"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>79721.406518123695</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.8217527860484815</v>
+      </c>
+      <c r="E22" s="3">
+        <v>99.60273968245825</v>
+      </c>
+      <c r="F22" s="6">
+        <v>9311544.7400000002</v>
+      </c>
+      <c r="G22" s="3">
+        <v>32.167734346602984</v>
+      </c>
+      <c r="H22" s="3">
+        <v>91.283276588676003</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="6"/>
@@ -7067,7 +7133,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H25" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -7123,7 +7189,7 @@
         <v>12.557434851270898</v>
       </c>
       <c r="E2" s="3">
-        <v>5.3048853371453912</v>
+        <v>5.4402633292057274</v>
       </c>
       <c r="F2" s="6">
         <v>345854.58</v>
@@ -7132,7 +7198,7 @@
         <v>2.6507068128061917</v>
       </c>
       <c r="H2" s="3">
-        <v>5.4257147104521506</v>
+        <v>5.2825859451517809</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -7150,7 +7216,7 @@
         <v>2.7808815510722118</v>
       </c>
       <c r="E3" s="3">
-        <v>5.5793995002179457</v>
+        <v>5.7082534934556621</v>
       </c>
       <c r="F3" s="6">
         <v>384972.25</v>
@@ -7159,7 +7225,7 @@
         <v>7.8018821493201163</v>
       </c>
       <c r="H3" s="3">
-        <v>5.3361014815996768</v>
+        <v>5.1998702325210449</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -7177,7 +7243,7 @@
         <v>37.793485862723529</v>
       </c>
       <c r="E4" s="3">
-        <v>5.8119315947666141</v>
+        <v>5.9290223949563172</v>
       </c>
       <c r="F4" s="6">
         <v>369913.39</v>
@@ -7186,7 +7252,7 @@
         <v>5.8318717724629154</v>
       </c>
       <c r="H4" s="3">
-        <v>5.1977069413784376</v>
+        <v>5.0739123614461574</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -7204,7 +7270,7 @@
         <v>10.652759436249815</v>
       </c>
       <c r="E5" s="3">
-        <v>5.9786084249303562</v>
+        <v>6.0777114057614883</v>
       </c>
       <c r="F5" s="6">
         <v>374464.74</v>
@@ -7213,7 +7279,7 @@
         <v>2.2712025571245853</v>
       </c>
       <c r="H5" s="3">
-        <v>5.0187120325321875</v>
+        <v>4.9139351255322294</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -7230,7 +7296,7 @@
         <v>33.703116882780378</v>
       </c>
       <c r="E6" s="3">
-        <v>6.0755452662656051</v>
+        <v>6.1493771875923278</v>
       </c>
       <c r="F6" s="6">
         <v>381850.51</v>
@@ -7239,7 +7305,7 @@
         <v>10.407822270273236</v>
       </c>
       <c r="H6" s="3">
-        <v>4.8076940508241091</v>
+        <v>4.7296350430162581</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -7257,7 +7323,7 @@
         <v>24.674048360364488</v>
       </c>
       <c r="E7" s="3">
-        <v>6.1017787387108715</v>
+        <v>6.1419358071890429</v>
       </c>
       <c r="F7" s="6">
         <v>381585.89</v>
@@ -7266,7 +7332,7 @@
         <v>-0.87963742841203896</v>
       </c>
       <c r="H7" s="3">
-        <v>4.5715130985952568</v>
+        <v>4.5290569242799874</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -7284,7 +7350,7 @@
         <v>-9.194808490583128</v>
       </c>
       <c r="E8" s="3">
-        <v>6.0736126944649875</v>
+        <v>6.0705244186013356</v>
       </c>
       <c r="F8" s="6">
         <v>394503.78</v>
@@ -7293,7 +7359,7 @@
         <v>6.6476074304852917</v>
       </c>
       <c r="H8" s="3">
-        <v>4.3205293583238413</v>
+        <v>4.3237944467221974</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -7311,7 +7377,7 @@
         <v>37.950899810530728</v>
       </c>
       <c r="E9" s="3">
-        <v>6.0189586542403184</v>
+        <v>5.9618627462246412</v>
       </c>
       <c r="F9" s="6">
         <v>384576.87</v>
@@ -7320,7 +7386,7 @@
         <v>2.7004224750239558</v>
       </c>
       <c r="H9" s="3">
-        <v>4.0616960434086931</v>
+        <v>4.1220608537712344</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -7337,7 +7403,7 @@
         <v>-22.676046102640878</v>
       </c>
       <c r="E10" s="3">
-        <v>5.956185375508575</v>
+        <v>5.8331296813861551</v>
       </c>
       <c r="F10" s="6">
         <v>373268.66</v>
@@ -7346,7 +7412,7 @@
         <v>-2.2474370925941733</v>
       </c>
       <c r="H10" s="3">
-        <v>3.8034207910437439</v>
+        <v>3.9335217719702986</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -7364,7 +7430,7 @@
         <v>-41.9736932580877</v>
       </c>
       <c r="E11" s="3">
-        <v>5.9236190789641494</v>
+        <v>5.7214972635782644</v>
       </c>
       <c r="F11" s="6">
         <v>338691.23</v>
@@ -7373,7 +7439,7 @@
         <v>-11.241154645419416</v>
       </c>
       <c r="H11" s="3">
-        <v>3.5532604424426841</v>
+        <v>3.7669543038758722</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -7391,7 +7457,7 @@
         <v>-28.900128756649934</v>
       </c>
       <c r="E12" s="3">
-        <v>5.941690840627591</v>
+        <v>5.6463192974283398</v>
       </c>
       <c r="F12" s="6">
         <v>372503.25</v>
@@ -7400,7 +7466,7 @@
         <v>-5.5767602530956806</v>
       </c>
       <c r="H12" s="3">
-        <v>3.314990052641932</v>
+        <v>3.6272724527540845</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -7418,7 +7484,7 @@
         <v>-3.5129153600112706</v>
       </c>
       <c r="E13" s="3">
-        <v>6.0008959163087914</v>
+        <v>5.5971400934877105</v>
       </c>
       <c r="F13" s="6">
         <v>383716.96</v>
@@ -7427,7 +7493,7 @@
         <v>-0.22359899075572454</v>
       </c>
       <c r="H13" s="3">
-        <v>3.0831381672479918</v>
+        <v>3.5100101537777562</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -7444,7 +7510,7 @@
         <v>6.0848251543198284</v>
       </c>
       <c r="E14" s="3">
-        <v>6.0699534245693449</v>
+        <v>5.5419124322739082</v>
       </c>
       <c r="F14" s="6">
         <v>389778.61</v>
@@ -7453,7 +7519,7 @@
         <v>4.4230742543453827</v>
       </c>
       <c r="H14" s="3">
-        <v>2.846675987926282</v>
+        <v>3.404948821678552</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -7471,7 +7537,7 @@
         <v>56.86564447100686</v>
       </c>
       <c r="E15" s="3">
-        <v>6.1116363519231456</v>
+        <v>5.4428953096460271</v>
       </c>
       <c r="F15" s="6">
         <v>429112.69</v>
@@ -7480,7 +7546,7 @@
         <v>26.697313656453403</v>
       </c>
       <c r="H15" s="3">
-        <v>2.5925080056184684</v>
+        <v>3.2995363654728025</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -7498,7 +7564,7 @@
         <v>71.445617803233702</v>
       </c>
       <c r="E16" s="3">
-        <v>6.0887269797151804</v>
+        <v>5.2626870419144387</v>
       </c>
       <c r="F16" s="6">
         <v>407181.9</v>
@@ -7507,7 +7573,7 @@
         <v>9.3096234730837946</v>
       </c>
       <c r="H16" s="3">
-        <v>2.308523960182729</v>
+        <v>3.1818570225722556</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -7525,7 +7591,7 @@
         <v>-20.942178166462689</v>
       </c>
       <c r="E17" s="3">
-        <v>5.9957288443648649</v>
+        <v>4.9960251636153661</v>
       </c>
       <c r="F17" s="6">
         <v>400744.9</v>
@@ -7534,7 +7600,7 @@
         <v>4.4376302783176502</v>
       </c>
       <c r="H17" s="3">
-        <v>1.9976790950090131</v>
+        <v>3.0546186411955216</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -7551,7 +7617,7 @@
         <v>2.3556065846421337</v>
       </c>
       <c r="E18" s="3">
-        <v>5.8679935390563136</v>
+        <v>4.6790115410108575</v>
       </c>
       <c r="F18" s="6">
         <v>375601.94</v>
@@ -7560,7 +7626,7 @@
         <v>-3.6371082548629308</v>
       </c>
       <c r="H18" s="3">
-        <v>1.6673043406828341</v>
+        <v>2.9243589235927812</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -7578,7 +7644,7 @@
         <v>-6.9248547445726949</v>
       </c>
       <c r="E19" s="3">
-        <v>5.7240364650918751</v>
+        <v>4.3315366632816632</v>
       </c>
       <c r="F19" s="6">
         <v>420201.66</v>
@@ -7587,7 +7653,7 @@
         <v>-2.0766176828748706</v>
       </c>
       <c r="H19" s="3">
-        <v>1.3262555972792729</v>
+        <v>2.7984799542874161</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -7605,7 +7671,7 @@
         <v>-21.50397533735098</v>
       </c>
       <c r="E20" s="3">
-        <v>5.5801777819273886</v>
+        <v>3.9720388915108034</v>
       </c>
       <c r="F20" s="6">
         <v>400134.07</v>
@@ -7614,7 +7680,7 @@
         <v>-1.7308799826318499</v>
       </c>
       <c r="H20" s="3">
-        <v>0.98007350700119489</v>
+        <v>2.6802829008162741</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -7632,7 +7698,7 @@
         <v>19.065621291614022</v>
       </c>
       <c r="E21" s="3">
-        <v>5.4448320920126525</v>
+        <v>3.6119213421513883</v>
       </c>
       <c r="F21" s="6">
         <v>392253</v>
@@ -7641,7 +7707,7 @@
         <v>-2.1190288385454226</v>
       </c>
       <c r="H21" s="3">
-        <v>0.63217191625136893</v>
+        <v>2.5700219946929761</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -8490,7 +8556,7 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H25"/>
+      <selection activeCell="H25" sqref="A22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -9838,8 +9904,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -9895,7 +9961,7 @@
         <v>6.9678407350689087</v>
       </c>
       <c r="E2" s="3">
-        <v>14.681217285844003</v>
+        <v>15.02631313421584</v>
       </c>
       <c r="F2" s="5">
         <v>135438</v>
@@ -9904,7 +9970,7 @@
         <v>8.5623136362178887</v>
       </c>
       <c r="H2" s="3">
-        <v>9.8817384662668442</v>
+        <v>10.228176058671396</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9922,7 +9988,7 @@
         <v>13.744075829383885</v>
       </c>
       <c r="E3" s="3">
-        <v>14.484518974452762</v>
+        <v>14.812944362703234</v>
       </c>
       <c r="F3" s="5">
         <v>161374</v>
@@ -9931,7 +9997,7 @@
         <v>12.251584226598311</v>
       </c>
       <c r="H3" s="3">
-        <v>9.6015150376898895</v>
+        <v>9.9313066734851532</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -9949,7 +10015,7 @@
         <v>16.242661448140904</v>
       </c>
       <c r="E4" s="3">
-        <v>14.267174982526774</v>
+        <v>14.565565628062284</v>
       </c>
       <c r="F4" s="5">
         <v>131800</v>
@@ -9958,7 +10024,7 @@
         <v>10.605730014601967</v>
       </c>
       <c r="H4" s="3">
-        <v>9.3540503152984442</v>
+        <v>9.6537996604490601</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -9976,7 +10042,7 @@
         <v>-6.5371861676930321</v>
       </c>
       <c r="E5" s="3">
-        <v>14.057620697235411</v>
+        <v>14.310099456808803</v>
       </c>
       <c r="F5" s="5">
         <v>154276</v>
@@ -9985,7 +10051,7 @@
         <v>6.7048456931015021</v>
       </c>
       <c r="H5" s="3">
-        <v>9.1657699210442694</v>
+        <v>9.4195599513644268</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -10002,7 +10068,7 @@
         <v>16.392269148174666</v>
       </c>
       <c r="E6" s="3">
-        <v>13.885526184789056</v>
+        <v>14.073516560346155</v>
       </c>
       <c r="F6" s="5">
         <v>138374</v>
@@ -10011,7 +10077,7 @@
         <v>2.1677815679499002</v>
       </c>
       <c r="H6" s="3">
-        <v>9.0638817766911917</v>
+        <v>9.2530874345039091</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -10029,7 +10095,7 @@
         <v>-1.0937500000000044</v>
       </c>
       <c r="E7" s="3">
-        <v>13.767689757107513</v>
+        <v>13.869758096562393</v>
       </c>
       <c r="F7" s="5">
         <v>149600</v>
@@ -10038,7 +10104,7 @@
         <v>-7.2960947860250087</v>
       </c>
       <c r="H7" s="3">
-        <v>9.0740557263605748</v>
+        <v>9.1771853017287501</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -10056,7 +10122,7 @@
         <v>-6.0044893378226716</v>
       </c>
       <c r="E8" s="3">
-        <v>13.722476440462708</v>
+        <v>13.714214443712963</v>
       </c>
       <c r="F8" s="5">
         <v>123687</v>
@@ -10065,7 +10131,7 @@
         <v>-6.1555386949924129</v>
       </c>
       <c r="H8" s="3">
-        <v>9.2176515515433213</v>
+        <v>9.2102284287335987</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -10083,7 +10149,7 @@
         <v>3.9026862645717086</v>
       </c>
       <c r="E9" s="3">
-        <v>13.75896286127837</v>
+        <v>13.612923787492962</v>
       </c>
       <c r="F9" s="5">
         <v>158332</v>
@@ -10092,7 +10158,7 @@
         <v>2.6290544219450762</v>
       </c>
       <c r="H9" s="3">
-        <v>9.5057976896600902</v>
+        <v>9.3602958911582554</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -10109,7 +10175,7 @@
         <v>-6.5805658056580558</v>
       </c>
       <c r="E10" s="3">
-        <v>13.873896292366801</v>
+        <v>13.559600123734025</v>
       </c>
       <c r="F10" s="5">
         <v>116029</v>
@@ -10118,7 +10184,7 @@
         <v>-16.148264847442441</v>
       </c>
       <c r="H10" s="3">
-        <v>9.9400143342274578</v>
+        <v>9.6258631601901943</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -10136,7 +10202,7 @@
         <v>-43.496577145866247</v>
       </c>
       <c r="E11" s="3">
-        <v>14.057863833667362</v>
+        <v>13.541888549815964</v>
       </c>
       <c r="F11" s="5">
         <v>78918</v>
@@ -10145,7 +10211,7 @@
         <v>-47.247326203208559</v>
       </c>
       <c r="H11" s="3">
-        <v>10.517523714219678</v>
+        <v>10.00119868109863</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -10163,7 +10229,7 @@
         <v>19.582089552238813</v>
       </c>
       <c r="E12" s="3">
-        <v>14.288668546308148</v>
+        <v>13.534846559412717</v>
       </c>
       <c r="F12" s="5">
         <v>132113</v>
@@ -10172,7 +10238,7 @@
         <v>6.8123569979060106</v>
       </c>
       <c r="H12" s="3">
-        <v>11.219242884122462</v>
+        <v>10.464462069148009</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -10190,7 +10256,7 @@
         <v>12.292682926829279</v>
       </c>
       <c r="E13" s="3">
-        <v>14.508141965805049</v>
+        <v>13.477882605138426</v>
       </c>
       <c r="F13" s="5">
         <v>160294</v>
@@ -10199,7 +10265,7 @@
         <v>1.2391683298385692</v>
       </c>
       <c r="H13" s="3">
-        <v>11.98998586722313</v>
+        <v>10.958032611550085</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -10216,7 +10282,7 @@
         <v>18.104015799868336</v>
       </c>
       <c r="E14" s="3">
-        <v>14.661424015802661</v>
+        <v>13.31418466647775</v>
       </c>
       <c r="F14" s="5">
         <v>141851</v>
@@ -10225,7 +10291,7 @@
         <v>22.254781132303126</v>
       </c>
       <c r="H14" s="3">
-        <v>12.771812383130115</v>
+        <v>11.422007029847085</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -10243,7 +10309,7 @@
         <v>130.66169617893758</v>
       </c>
       <c r="E15" s="3">
-        <v>14.69226995804622</v>
+        <v>12.986199973116404</v>
       </c>
       <c r="F15" s="5">
         <v>177997</v>
@@ -10252,7 +10318,7 @@
         <v>125.54677006513089</v>
       </c>
       <c r="H15" s="3">
-        <v>13.500062890490986</v>
+        <v>11.79040775540517</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -10270,7 +10336,7 @@
         <v>35.197204193709439</v>
       </c>
       <c r="E16" s="3">
-        <v>14.546586674146001</v>
+        <v>12.439369399198469</v>
       </c>
       <c r="F16" s="5">
         <v>161300</v>
@@ -10279,7 +10345,7 @@
         <v>22.092451159234905</v>
       </c>
       <c r="H16" s="3">
-        <v>14.116004703421543</v>
+        <v>12.00402770340453</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -10297,7 +10363,7 @@
         <v>17.419635099913112</v>
       </c>
       <c r="E17" s="3">
-        <v>14.242761937100337</v>
+        <v>11.692681003996665</v>
       </c>
       <c r="F17" s="5">
         <v>193101</v>
@@ -10306,7 +10372,7 @@
         <v>20.466767315058586</v>
       </c>
       <c r="H17" s="3">
-        <v>14.630934328021739</v>
+        <v>12.074757515468937</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -10323,7 +10389,7 @@
         <v>22.909698996655514</v>
       </c>
       <c r="E18" s="3">
-        <v>13.812090155857291</v>
+        <v>10.779346493530284</v>
       </c>
       <c r="F18" s="5">
         <v>175383</v>
@@ -10332,7 +10398,7 @@
         <v>23.638888693065251</v>
       </c>
       <c r="H18" s="3">
-        <v>15.061133549426412</v>
+        <v>12.020793097882059</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -10350,7 +10416,7 @@
         <v>10.505050505050505</v>
       </c>
       <c r="E19" s="3">
-        <v>13.287851285091685</v>
+        <v>9.7361569201285665</v>
       </c>
       <c r="F19" s="5">
         <v>199578</v>
@@ -10359,7 +10425,7 @@
         <v>12.124361646544601</v>
       </c>
       <c r="H19" s="3">
-        <v>15.426531548387295</v>
+        <v>11.865575363052308</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -10377,7 +10443,7 @@
         <v>-19.054652880354507</v>
       </c>
       <c r="E20" s="3">
-        <v>12.709011285003841</v>
+        <v>8.6074848064352079</v>
       </c>
       <c r="F20" s="5">
         <v>168793</v>
@@ -10386,7 +10452,7 @@
         <v>4.6453812771233727</v>
       </c>
       <c r="H20" s="3">
-        <v>15.752418602620901</v>
+        <v>11.639806533135085</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -10398,31 +10464,49 @@
         <v>4</v>
       </c>
       <c r="C21" s="5">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="D21" s="3">
-        <v>-15.686274509803921</v>
+        <v>-15.760266370699227</v>
       </c>
       <c r="E21" s="3">
-        <v>12.112796865306553</v>
+        <v>7.4381832335844784</v>
       </c>
       <c r="F21" s="5">
-        <v>173804</v>
+        <v>173980</v>
       </c>
       <c r="G21" s="3">
-        <v>-9.9932159854169598</v>
+        <v>-9.9020719726982236</v>
       </c>
       <c r="H21" s="3">
-        <v>16.062021133655087</v>
+        <v>11.374350571712974</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1882</v>
+      </c>
+      <c r="D22" s="3">
+        <v>-14.6485260770975</v>
+      </c>
+      <c r="E22" s="3">
+        <v>6.2558164466564019</v>
+      </c>
+      <c r="F22" s="5">
+        <v>157817</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-10.015794005120227</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11.095699926583547</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
@@ -11243,8 +11327,8 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -11300,7 +11384,7 @@
         <v>4.1144889795997841</v>
       </c>
       <c r="E2" s="3">
-        <v>5.2028105007549126</v>
+        <v>5.1355747957300188</v>
       </c>
       <c r="F2" s="5">
         <v>289688222</v>
@@ -11309,7 +11393,7 @@
         <v>3.7009625480112662</v>
       </c>
       <c r="H2" s="3">
-        <v>4.167127537905694</v>
+        <v>4.1254139117037294</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -11327,7 +11411,7 @@
         <v>2.8420051980291516</v>
       </c>
       <c r="E3" s="3">
-        <v>4.7594578132976402</v>
+        <v>4.6954622631438934</v>
       </c>
       <c r="F3" s="5">
         <v>293385041</v>
@@ -11336,7 +11420,7 @@
         <v>2.6191491016590795</v>
       </c>
       <c r="H3" s="3">
-        <v>3.7324119874639856</v>
+        <v>3.6927085820082959</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -11354,7 +11438,7 @@
         <v>5.0348644309370583</v>
       </c>
       <c r="E4" s="3">
-        <v>4.3617226181058513</v>
+        <v>4.3035692773532794</v>
       </c>
       <c r="F4" s="5">
         <v>292441377</v>
@@ -11363,7 +11447,7 @@
         <v>2.8323165257474248</v>
       </c>
       <c r="H4" s="3">
-        <v>3.3435720300663108</v>
+        <v>3.3074931830065499</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -11381,7 +11465,7 @@
         <v>4.5430764813294111</v>
       </c>
       <c r="E5" s="3">
-        <v>4.0011312709661242</v>
+        <v>3.9519116106296037</v>
       </c>
       <c r="F5" s="5">
         <v>293395933</v>
@@ -11390,7 +11474,7 @@
         <v>1.8319202055392392</v>
       </c>
       <c r="H5" s="3">
-        <v>2.9988883528030565</v>
+        <v>2.9683520401057302</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -11407,7 +11491,7 @@
         <v>7.5107089096191793</v>
       </c>
       <c r="E6" s="3">
-        <v>3.6696308412980563</v>
+        <v>3.6329620947152836</v>
       </c>
       <c r="F6" s="5">
         <v>296926428</v>
@@ -11416,7 +11500,7 @@
         <v>2.4986193605068374</v>
       </c>
       <c r="H6" s="3">
-        <v>2.6963221080744115</v>
+        <v>2.6735724933022884</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -11434,7 +11518,7 @@
         <v>1.5059380223408247</v>
       </c>
       <c r="E7" s="3">
-        <v>3.3595071142777226</v>
+        <v>3.3395630393969249</v>
       </c>
       <c r="F7" s="5">
         <v>300633143</v>
@@ -11443,7 +11527,7 @@
         <v>2.4705083719656962</v>
       </c>
       <c r="H7" s="3">
-        <v>2.4331050931885243</v>
+        <v>2.4207316126960734</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -11461,7 +11545,7 @@
         <v>1.2163424305048132</v>
       </c>
       <c r="E8" s="3">
-        <v>3.0654465488739002</v>
+        <v>3.0669803462204488</v>
       </c>
       <c r="F8" s="5">
         <v>298077919</v>
@@ -11470,7 +11554,7 @@
         <v>1.9274091983228381</v>
       </c>
       <c r="H8" s="3">
-        <v>2.2063455412363147</v>
+        <v>2.2072971226789369</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -11488,7 +11572,7 @@
         <v>0.52178706156027488</v>
       </c>
       <c r="E9" s="3">
-        <v>2.7809771233729048</v>
+        <v>2.8093339010961156</v>
       </c>
       <c r="F9" s="5">
         <v>295079642</v>
@@ -11497,7 +11581,7 @@
         <v>0.57386923628555131</v>
       </c>
       <c r="H9" s="3">
-        <v>2.0131750623579374</v>
+        <v>2.0307678581172737</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -11514,7 +11598,7 @@
         <v>6.7786741871065592</v>
       </c>
       <c r="E10" s="3">
-        <v>2.4984711259870722</v>
+        <v>2.5595869412368639</v>
       </c>
       <c r="F10" s="5">
         <v>298278845</v>
@@ -11523,7 +11607,7 @@
         <v>0.45547208751657298</v>
       </c>
       <c r="H10" s="3">
-        <v>1.8505509314792268</v>
+        <v>1.8884677239247567</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -11541,7 +11625,7 @@
         <v>10.363467648076497</v>
       </c>
       <c r="E11" s="3">
-        <v>2.208888851140105</v>
+        <v>2.3092729870809228</v>
       </c>
       <c r="F11" s="5">
         <v>305689416</v>
@@ -11550,7 +11634,7 @@
         <v>1.6818747758626129</v>
       </c>
       <c r="H11" s="3">
-        <v>1.7145308573847216</v>
+        <v>1.7768100633764139</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -11568,7 +11652,7 @@
         <v>7.7149981601279061</v>
       </c>
       <c r="E12" s="3">
-        <v>1.9058657201689058</v>
+        <v>2.0525624885951892</v>
       </c>
       <c r="F12" s="5">
         <v>301869639</v>
@@ -11577,7 +11661,7 @@
         <v>1.2720566530793675</v>
       </c>
       <c r="H12" s="3">
-        <v>1.6003006245814844</v>
+        <v>1.691312597474518</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -11595,7 +11679,7 @@
         <v>4.9069504517900375</v>
       </c>
       <c r="E13" s="3">
-        <v>1.5881337661584622</v>
+        <v>1.7886597674096831</v>
       </c>
       <c r="F13" s="5">
         <v>303991724</v>
@@ -11604,7 +11688,7 @@
         <v>3.0202293657384915</v>
       </c>
       <c r="H13" s="3">
-        <v>1.5030256075256263</v>
+        <v>1.6274337126666458</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -11621,7 +11705,7 @@
         <v>-2.8689804628406645</v>
       </c>
       <c r="E14" s="3">
-        <v>1.2580557299687367</v>
+        <v>1.5203081674491326</v>
       </c>
       <c r="F14" s="5">
         <v>307685256</v>
@@ -11630,7 +11714,7 @@
         <v>3.1535629018544675</v>
       </c>
       <c r="H14" s="3">
-        <v>1.41766602819107</v>
+        <v>1.5803697604351274</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -11648,7 +11732,7 @@
         <v>0.4669145362847793</v>
       </c>
       <c r="E15" s="3">
-        <v>0.92006861288821107</v>
+        <v>1.2521999643160031</v>
       </c>
       <c r="F15" s="5">
         <v>312029716</v>
@@ -11657,7 +11741,7 @@
         <v>2.0740986334966793</v>
       </c>
       <c r="H15" s="3">
-        <v>1.340130360900621</v>
+        <v>1.5461875895454626</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -11675,7 +11759,7 @@
         <v>-0.14308920529089164</v>
       </c>
       <c r="E16" s="3">
-        <v>0.57603001858486125</v>
+        <v>0.98628412821882894</v>
       </c>
       <c r="F16" s="5">
         <v>312293638</v>
@@ -11684,7 +11768,7 @@
         <v>3.4531458793045422</v>
       </c>
       <c r="H16" s="3">
-        <v>1.2674120155231243</v>
+        <v>1.5219372944765381</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11702,7 +11786,7 @@
         <v>2.4397267376874421</v>
       </c>
       <c r="E17" s="3">
-        <v>0.22751432942878597</v>
+        <v>0.72401882597362466</v>
       </c>
       <c r="F17" s="5">
         <v>312587551</v>
@@ -11711,7 +11795,7 @@
         <v>2.8276516501482218</v>
       </c>
       <c r="H17" s="3">
-        <v>1.1969631320977976</v>
+        <v>1.5049989141097104</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11728,7 +11812,7 @@
         <v>-2.4310311635578508</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.12435352172483814</v>
+        <v>0.46615636606296179</v>
       </c>
       <c r="F18" s="5">
         <v>309743040</v>
@@ -11737,7 +11821,7 @@
         <v>0.66879512744673075</v>
       </c>
       <c r="H18" s="3">
-        <v>1.127601934328722</v>
+        <v>1.4939594926918536</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11755,7 +11839,7 @@
         <v>-2.754736454193496</v>
       </c>
       <c r="E19" s="3">
-        <v>-0.47706596926567274</v>
+        <v>0.21452137441423283</v>
       </c>
       <c r="F19" s="5">
         <v>316662488</v>
@@ -11764,7 +11848,7 @@
         <v>1.4847214103159256</v>
       </c>
       <c r="H19" s="3">
-        <v>1.0591658262437604</v>
+        <v>1.4882327324298659</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11782,7 +11866,7 @@
         <v>-3.9143935842478328E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>-0.82955712110952506</v>
+        <v>-3.0872265251182553E-2</v>
       </c>
       <c r="F20" s="5">
         <v>314844552</v>
@@ -11791,7 +11875,7 @@
         <v>0.81683188179453303</v>
       </c>
       <c r="H20" s="3">
-        <v>0.99120545761647438</v>
+        <v>1.4867166078023673</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11809,7 +11893,7 @@
         <v>-1.4003546642730513</v>
       </c>
       <c r="E21" s="3">
-        <v>-1.1821846292252822</v>
+        <v>-0.27186645535478454</v>
       </c>
       <c r="F21" s="5">
         <v>316936631</v>
@@ -11818,16 +11902,34 @@
         <v>1.3913158045119944</v>
       </c>
       <c r="H21" s="3">
-        <v>0.92353745046047053</v>
+        <v>1.4883068987116566</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3375280</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.5734954857976398</v>
+      </c>
+      <c r="E22" s="3">
+        <v>-0.51030826811219288</v>
+      </c>
+      <c r="F22" s="5">
+        <v>322210534</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4.0251086836366134</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1.4914807071062772</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
@@ -12649,7 +12751,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F25"/>
+      <selection activeCell="A23" sqref="A23:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -13059,10 +13161,20 @@
       <c r="H21" s="3"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="4"/>
+      <c r="A22" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>21.7</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="4">
+        <v>23.7</v>
+      </c>
       <c r="H22" s="3"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -13882,7 +13994,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -13938,7 +14050,7 @@
         <v>0.21267545725223158</v>
       </c>
       <c r="E2" s="3">
-        <v>1.1945176152425716</v>
+        <v>1.1982627601648987</v>
       </c>
       <c r="F2" s="6">
         <v>18874.2</v>
@@ -13947,7 +14059,7 @@
         <v>2.3641008118969742</v>
       </c>
       <c r="H2" s="3">
-        <v>2.1384322337537967</v>
+        <v>2.1460893127949547</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -13965,7 +14077,7 @@
         <v>1.6094875052943713</v>
       </c>
       <c r="E3" s="3">
-        <v>1.163401548191658</v>
+        <v>1.1669662108901608</v>
       </c>
       <c r="F3" s="6">
         <v>19344.099999999999</v>
@@ -13974,7 +14086,7 @@
         <v>2.8214082590507727</v>
       </c>
       <c r="H3" s="3">
-        <v>2.0928289991843005</v>
+        <v>2.100117076042098</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -13992,7 +14104,7 @@
         <v>3.0910609857978333</v>
       </c>
       <c r="E4" s="3">
-        <v>1.1262366346889523</v>
+        <v>1.1294758762311523</v>
       </c>
       <c r="F4" s="6">
         <v>19528</v>
@@ -14001,7 +14113,7 @@
         <v>2.5134913802154379</v>
       </c>
       <c r="H4" s="3">
-        <v>2.0340675413424276</v>
+        <v>2.0406902833287717</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -14019,7 +14131,7 @@
         <v>1.6835016835016869</v>
       </c>
       <c r="E5" s="3">
-        <v>1.085347234073688</v>
+        <v>1.0880888541834135</v>
       </c>
       <c r="F5" s="6">
         <v>19564.599999999999</v>
@@ -14028,7 +14140,7 @@
         <v>2.9802509685025846</v>
       </c>
       <c r="H5" s="3">
-        <v>1.965706970228104</v>
+        <v>1.9713123078896346</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -14045,7 +14157,7 @@
         <v>0.72156196943973239</v>
       </c>
       <c r="E6" s="3">
-        <v>1.044285720904542</v>
+        <v>1.046328233435964</v>
       </c>
       <c r="F6" s="6">
         <v>19471.099999999999</v>
@@ -14054,7 +14166,7 @@
         <v>3.1625181464644658</v>
       </c>
       <c r="H6" s="3">
-        <v>1.8916060357405518</v>
+        <v>1.8957820236449003</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -14072,7 +14184,7 @@
         <v>1.9174656106711208</v>
       </c>
       <c r="E7" s="3">
-        <v>1.0069783162710837</v>
+        <v>1.0080892356961477</v>
       </c>
       <c r="F7" s="6">
         <v>19804.900000000001</v>
@@ -14081,7 +14193,7 @@
         <v>2.3821216805124168</v>
       </c>
       <c r="H7" s="3">
-        <v>1.8162575777779149</v>
+        <v>1.818528891177666</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -14099,7 +14211,7 @@
         <v>0.81037277147488762</v>
       </c>
       <c r="E8" s="3">
-        <v>0.9771495389182171</v>
+        <v>0.97706410375631081</v>
       </c>
       <c r="F8" s="6">
         <v>19874.3</v>
@@ -14108,7 +14220,7 @@
         <v>1.7733510856206447</v>
       </c>
       <c r="H8" s="3">
-        <v>1.7449487563075401</v>
+        <v>1.7447740811477914</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -14126,7 +14238,7 @@
         <v>1.2831125827814649</v>
       </c>
       <c r="E9" s="3">
-        <v>0.95909296214984618</v>
+        <v>0.95751344064315902</v>
       </c>
       <c r="F9" s="6">
         <v>19966.900000000001</v>
@@ -14135,7 +14247,7 @@
         <v>2.056264886580883</v>
       </c>
       <c r="H9" s="3">
-        <v>1.6833203963609831</v>
+        <v>1.68009100970847</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -14152,7 +14264,7 @@
         <v>0.8006742520016763</v>
       </c>
       <c r="E10" s="3">
-        <v>0.95699792379022308</v>
+        <v>0.95359366730072204</v>
       </c>
       <c r="F10" s="6">
         <v>19681.3</v>
@@ -14161,7 +14273,7 @@
         <v>1.0795486644308738</v>
       </c>
       <c r="H10" s="3">
-        <v>1.6370310744256202</v>
+        <v>1.6300709536406912</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -14179,7 +14291,7 @@
         <v>-9.9386503067484746</v>
       </c>
       <c r="E11" s="3">
-        <v>0.9752562739264945</v>
+        <v>0.96966470413686612</v>
       </c>
       <c r="F11" s="6">
         <v>18607.2</v>
@@ -14188,7 +14300,7 @@
         <v>-6.0474932971133484</v>
       </c>
       <c r="H11" s="3">
-        <v>1.6119724572952154</v>
+        <v>1.6005402983984895</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -14206,7 +14318,7 @@
         <v>-3.1752411575562745</v>
       </c>
       <c r="E12" s="3">
-        <v>1.0181621603509394</v>
+        <v>1.0099908969248956</v>
       </c>
       <c r="F12" s="6">
         <v>19176.900000000001</v>
@@ -14215,7 +14327,7 @@
         <v>-3.5090544069476537</v>
       </c>
       <c r="H12" s="3">
-        <v>1.613687785257286</v>
+        <v>1.5969813530051435</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -14233,7 +14345,7 @@
         <v>-3.0241111565181722</v>
       </c>
       <c r="E13" s="3">
-        <v>1.083188539242915</v>
+        <v>1.0720188945563116</v>
       </c>
       <c r="F13" s="6">
         <v>19344.3</v>
@@ -14242,7 +14354,7 @@
         <v>-3.1181605557197289</v>
       </c>
       <c r="H13" s="3">
-        <v>1.6429331325028438</v>
+        <v>1.6200964054867368</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -14259,7 +14371,7 @@
         <v>-0.29264214046822445</v>
       </c>
       <c r="E14" s="3">
-        <v>1.1651874897080867</v>
+        <v>1.1505795758885644</v>
       </c>
       <c r="F14" s="6">
         <v>19206.8</v>
@@ -14268,7 +14380,7 @@
         <v>-2.410917977979099</v>
       </c>
       <c r="H14" s="3">
-        <v>1.6972628593527732</v>
+        <v>1.6673964715193828</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -14286,7 +14398,7 @@
         <v>9.8546775658492347</v>
       </c>
       <c r="E15" s="3">
-        <v>1.2564440285422689</v>
+        <v>1.237943738497183</v>
       </c>
       <c r="F15" s="6">
         <v>19671.7</v>
@@ -14295,7 +14407,7 @@
         <v>5.7209037361881432</v>
       </c>
       <c r="H15" s="3">
-        <v>1.771255642572819</v>
+        <v>1.7334311561784406</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -14313,7 +14425,7 @@
         <v>6.0606060606060552</v>
       </c>
       <c r="E16" s="3">
-        <v>1.3483320290224157</v>
+        <v>1.3254801663849729</v>
       </c>
       <c r="F16" s="6">
         <v>20031</v>
@@ -14322,7 +14434,7 @@
         <v>4.45379597328035</v>
       </c>
       <c r="H16" s="3">
-        <v>1.8569225459053935</v>
+        <v>1.8102011180083328</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -14340,7 +14452,7 @@
         <v>2.0648967551622377</v>
       </c>
       <c r="E17" s="3">
-        <v>1.4375992603862984</v>
+        <v>1.4099431021968352</v>
       </c>
       <c r="F17" s="6">
         <v>20184.900000000001</v>
@@ -14349,7 +14461,7 @@
         <v>4.3454661062948929</v>
       </c>
       <c r="H17" s="3">
-        <v>1.9487431631514187</v>
+        <v>1.8921991859159881</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -14366,7 +14478,7 @@
         <v>1.8448637316561767</v>
       </c>
       <c r="E18" s="3">
-        <v>1.5239386631414282</v>
+        <v>1.4910462422615589</v>
       </c>
       <c r="F18" s="6">
         <v>20084.7</v>
@@ -14375,7 +14487,7 @@
         <v>4.5707770164733486</v>
       </c>
       <c r="H18" s="3">
-        <v>2.0428201340039265</v>
+        <v>1.9755704355928805</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -14393,7 +14505,7 @@
         <v>4.2166184373708004</v>
       </c>
       <c r="E19" s="3">
-        <v>1.6074352387295512</v>
+        <v>1.5689126289410367</v>
       </c>
       <c r="F19" s="6">
         <v>20468</v>
@@ -14402,7 +14514,7 @@
         <v>4.0479470508395288</v>
       </c>
       <c r="H19" s="3">
-        <v>2.136754049995413</v>
+        <v>2.0579932345557208</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -14420,7 +14532,7 @@
         <v>-0.35225048923679392</v>
       </c>
       <c r="E20" s="3">
-        <v>1.6883745667602352</v>
+        <v>1.6438864405280329</v>
       </c>
       <c r="F20" s="6">
         <v>20545.7</v>
@@ -14429,7 +14541,7 @@
         <v>2.5695172482651962</v>
       </c>
       <c r="H20" s="3">
-        <v>2.2297254757099179</v>
+        <v>2.1387679544342704</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -14447,7 +14559,7 @@
         <v>0.74318744838977047</v>
       </c>
       <c r="E21" s="3">
-        <v>1.7686729663421989</v>
+        <v>1.7179666714455804</v>
       </c>
       <c r="F21" s="6">
         <v>20463.900000000001</v>
@@ -14456,7 +14568,7 @@
         <v>1.3822213634944847</v>
       </c>
       <c r="H21" s="3">
-        <v>2.3221094713570087</v>
+        <v>2.2184386879934674</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -14469,19 +14581,19 @@
       <c r="C22" s="2">
         <v>246.7</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="3">
         <v>1.5644298065047302</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <v>1.7919047305356084</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="6">
         <v>20452.8</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>1.8327383530747143</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <v>2.2978187463068944</v>
       </c>
     </row>
@@ -15303,7 +15415,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -15359,7 +15471,7 @@
         <v>-12.987012987012992</v>
       </c>
       <c r="E2" s="3">
-        <v>-9.3522481358890435</v>
+        <v>-9.3069196950817545</v>
       </c>
       <c r="F2" s="6">
         <v>3796.1</v>
@@ -15368,7 +15480,7 @@
         <v>-10.784958871915396</v>
       </c>
       <c r="H2" s="3">
-        <v>-9.1451387777687518</v>
+        <v>-9.1966014125814848</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -15386,7 +15498,7 @@
         <v>-18.441558441558449</v>
       </c>
       <c r="E3" s="3">
-        <v>-8.8432031484135134</v>
+        <v>-8.8000591298299327</v>
       </c>
       <c r="F3" s="6">
         <v>3490.1</v>
@@ -15395,7 +15507,7 @@
         <v>-10.837186725595894</v>
       </c>
       <c r="H3" s="3">
-        <v>-8.7090346728778112</v>
+        <v>-8.758017272613813</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -15413,7 +15525,7 @@
         <v>-29.68299711815563</v>
       </c>
       <c r="E4" s="3">
-        <v>-8.2331295338819075</v>
+        <v>-8.1939241702574233</v>
       </c>
       <c r="F4" s="6">
         <v>3326</v>
@@ -15422,7 +15534,7 @@
         <v>-10.871720663504568</v>
       </c>
       <c r="H4" s="3">
-        <v>-8.2096904588070423</v>
+        <v>-8.2542013944353965</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15440,7 +15552,7 @@
         <v>-30.000000000000004</v>
       </c>
       <c r="E5" s="3">
-        <v>-7.5369582214250226</v>
+        <v>-7.5037756964660955</v>
       </c>
       <c r="F5" s="6">
         <v>3304.3</v>
@@ -15449,7 +15561,7 @@
         <v>-12.275997557543727</v>
       </c>
       <c r="H5" s="3">
-        <v>-7.6630368204433799</v>
+        <v>-7.7007098604534043</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -15466,7 +15578,7 @@
         <v>-1.4925373134328401</v>
       </c>
       <c r="E6" s="3">
-        <v>-6.7830263074138299</v>
+        <v>-6.7583052591502577</v>
       </c>
       <c r="F6" s="6">
         <v>3354.2</v>
@@ -15475,7 +15587,7 @@
         <v>-11.640894602355056</v>
       </c>
       <c r="H6" s="3">
-        <v>-7.0866682115516975</v>
+        <v>-7.1147347026181755</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -15493,7 +15605,7 @@
         <v>-22.929936305732479</v>
       </c>
       <c r="E7" s="3">
-        <v>-6.0137102893309109</v>
+        <v>-6.0002645491939255</v>
       </c>
       <c r="F7" s="6">
         <v>3230.6</v>
@@ -15502,7 +15614,7 @@
         <v>-7.4353170396263764</v>
       </c>
       <c r="H7" s="3">
-        <v>-6.5010621863575562</v>
+        <v>-6.5163275076907317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -15520,7 +15632,7 @@
         <v>-2.4590163934426146</v>
       </c>
       <c r="E8" s="3">
-        <v>-5.2680801090376104</v>
+        <v>-5.2691141525150442</v>
       </c>
       <c r="F8" s="6">
         <v>3214.4</v>
@@ -15529,7 +15641,7 @@
         <v>-3.3553818400480995</v>
       </c>
       <c r="H8" s="3">
-        <v>-5.92954269058077</v>
+        <v>-5.9283687123694317</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -15547,7 +15659,7 @@
         <v>18.918918918918926</v>
       </c>
       <c r="E9" s="3">
-        <v>-4.5957783496555225</v>
+        <v>-4.6148956998793942</v>
       </c>
       <c r="F9" s="6">
         <v>3191.9</v>
@@ -15556,7 +15668,7 @@
         <v>-3.4016281814605254</v>
       </c>
       <c r="H9" s="3">
-        <v>-5.3960175792244467</v>
+        <v>-5.3743131218100926</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -15573,7 +15685,7 @@
         <v>-9.6969696969696919</v>
       </c>
       <c r="E10" s="3">
-        <v>-4.0446919294839958</v>
+        <v>-4.0858945109533362</v>
       </c>
       <c r="F10" s="6">
         <v>3313</v>
@@ -15582,7 +15694,7 @@
         <v>-1.2283107745513</v>
       </c>
       <c r="H10" s="3">
-        <v>-4.922785856760111</v>
+        <v>-4.8760074243733316</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -15600,7 +15712,7 @@
         <v>45.041322314049602</v>
       </c>
       <c r="E11" s="3">
-        <v>-3.6480110810295199</v>
+        <v>-3.7156872712664821</v>
       </c>
       <c r="F11" s="6">
         <v>3368</v>
@@ -15609,7 +15721,7 @@
         <v>4.253079923234071</v>
       </c>
       <c r="H11" s="3">
-        <v>-4.5309000342856853</v>
+        <v>-4.4540653803320467</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -15627,7 +15739,7 @@
         <v>38.235294117647058</v>
       </c>
       <c r="E12" s="3">
-        <v>-3.4424587104032627</v>
+        <v>-3.5413575883397042</v>
       </c>
       <c r="F12" s="6">
         <v>3722.9</v>
@@ -15636,7 +15748,7 @@
         <v>15.819437531110015</v>
       </c>
       <c r="H12" s="3">
-        <v>-4.2391035759727114</v>
+        <v>-4.1268209395529984</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -15654,7 +15766,7 @@
         <v>2.9220779220779258</v>
       </c>
       <c r="E13" s="3">
-        <v>-3.4343268903444675</v>
+        <v>-3.5695159387030522</v>
       </c>
       <c r="F13" s="6">
         <v>3719.8</v>
@@ -15663,7 +15775,7 @@
         <v>16.538738682289544</v>
       </c>
       <c r="H13" s="3">
-        <v>-4.0606499585192815</v>
+        <v>-3.907166086088218</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15680,7 +15792,7 @@
         <v>8.0536912751677967</v>
       </c>
       <c r="E14" s="3">
-        <v>-3.6038590980748473</v>
+        <v>-3.7806623915703348</v>
       </c>
       <c r="F14" s="6">
         <v>3653.9</v>
@@ -15689,7 +15801,7 @@
         <v>10.289767582251731</v>
       </c>
       <c r="H14" s="3">
-        <v>-3.9962560704315617</v>
+        <v>-3.7955263924455735</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -15707,7 +15819,7 @@
         <v>-2.2792022792022859</v>
       </c>
       <c r="E15" s="3">
-        <v>-3.9273260578083509</v>
+        <v>-4.1512397699923724</v>
       </c>
       <c r="F15" s="6">
         <v>3543.8</v>
@@ -15716,7 +15828,7 @@
         <v>5.2197149643705476</v>
       </c>
       <c r="H15" s="3">
-        <v>-4.0337641823152124</v>
+        <v>-3.7795487406526962</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -15734,7 +15846,7 @@
         <v>-13.373860182370812</v>
       </c>
       <c r="E16" s="3">
-        <v>-4.3737125247756499</v>
+        <v>-4.6502944259782737</v>
       </c>
       <c r="F16" s="6">
         <v>3416.7</v>
@@ -15743,7 +15855,7 @@
         <v>-8.2247710118456112</v>
       </c>
       <c r="H16" s="3">
-        <v>-4.1520877999929668</v>
+        <v>-3.8380767040030306</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15761,7 +15873,7 @@
         <v>-0.63091482649841879</v>
       </c>
       <c r="E17" s="3">
-        <v>-4.9109731768457872</v>
+        <v>-5.2457026881054043</v>
       </c>
       <c r="F17" s="6">
         <v>3103.8</v>
@@ -15770,7 +15882,7 @@
         <v>-16.56003010914565</v>
       </c>
       <c r="H17" s="3">
-        <v>-4.3243570048208797</v>
+        <v>-3.9443293159743829</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15787,7 +15899,7 @@
         <v>-11.180124223602483</v>
       </c>
       <c r="E18" s="3">
-        <v>-5.5126877841738038</v>
+        <v>-5.9107931135488752</v>
       </c>
       <c r="F18" s="6">
         <v>3174.7</v>
@@ -15796,7 +15908,7 @@
         <v>-13.11475409836066</v>
       </c>
       <c r="H18" s="3">
-        <v>-4.5262473051624141</v>
+        <v>-4.0742672939869609</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -15814,7 +15926,7 @@
         <v>-34.6938775510204</v>
       </c>
       <c r="E19" s="3">
-        <v>-6.1497610804457734</v>
+        <v>-6.6160100170702929</v>
       </c>
       <c r="F19" s="6">
         <v>2919.4</v>
@@ -15823,7 +15935,7 @@
         <v>-17.619504486709182</v>
       </c>
       <c r="H19" s="3">
-        <v>-4.7410815050712367</v>
+        <v>-4.2117361684567047</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15841,7 +15953,7 @@
         <v>-15.789473684210531</v>
       </c>
       <c r="E20" s="3">
-        <v>-6.7966399471224124</v>
+        <v>-7.335091045375048</v>
       </c>
       <c r="F20" s="6">
         <v>2980.2</v>
@@ -15850,7 +15962,7 @@
         <v>-12.775485117218366</v>
       </c>
       <c r="H20" s="3">
-        <v>-4.957550225346762</v>
+        <v>-4.3462317740522884</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15868,7 +15980,7 @@
         <v>-10.793650793650789</v>
       </c>
       <c r="E21" s="3">
-        <v>-7.4456113384585461</v>
+        <v>-8.0593225123772498</v>
       </c>
       <c r="F21" s="6">
         <v>3024</v>
@@ -15877,7 +15989,7 @@
         <v>-2.5710419485791669</v>
       </c>
       <c r="H21" s="3">
-        <v>-5.1723931011519291</v>
+        <v>-4.4756298006412933</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -15887,7 +15999,7 @@
       <c r="B22" s="2">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>25.3</v>
       </c>
       <c r="D22" s="3">
@@ -16723,7 +16835,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -16779,7 +16891,7 @@
         <v>-1.6099999999999994</v>
       </c>
       <c r="E2" s="3">
-        <v>-1.4893775289745592</v>
+        <v>-1.5384664926189928</v>
       </c>
       <c r="F2" s="2">
         <v>16.739999999999998</v>
@@ -16788,7 +16900,7 @@
         <v>-2.0100000000000016</v>
       </c>
       <c r="H2" s="3">
-        <v>-1.7710312444584804</v>
+        <v>-1.7780929475146501</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -16806,7 +16918,7 @@
         <v>-2.4599999999999991</v>
       </c>
       <c r="E3" s="3">
-        <v>-1.4225821327339252</v>
+        <v>-1.469305450853958</v>
       </c>
       <c r="F3" s="2">
         <v>15.28</v>
@@ -16815,7 +16927,7 @@
         <v>-1.9399999999999995</v>
       </c>
       <c r="H3" s="3">
-        <v>-1.6879088741308395</v>
+        <v>-1.694630266758977</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -16833,7 +16945,7 @@
         <v>-3.6799999999999997</v>
       </c>
       <c r="E4" s="3">
-        <v>-1.3428807690626883</v>
+        <v>-1.3853386748576588</v>
       </c>
       <c r="F4" s="2">
         <v>14.55</v>
@@ -16842,7 +16954,7 @@
         <v>-1.8299999999999983</v>
       </c>
       <c r="H4" s="3">
-        <v>-1.5936453020616628</v>
+        <v>-1.5997530929142585</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -16860,7 +16972,7 @@
         <v>-3.8100000000000005</v>
       </c>
       <c r="E5" s="3">
-        <v>-1.2523739857706371</v>
+        <v>-1.2883093881874965</v>
       </c>
       <c r="F5" s="2">
         <v>14.45</v>
@@ -16869,7 +16981,7 @@
         <v>-2.1000000000000014</v>
       </c>
       <c r="H5" s="3">
-        <v>-1.4913461116636264</v>
+        <v>-1.4965156064386611</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -16886,7 +16998,7 @@
         <v>-0.26000000000000156</v>
       </c>
       <c r="E6" s="3">
-        <v>-1.1546230301868963</v>
+        <v>-1.1813949777290864</v>
       </c>
       <c r="F6" s="2">
         <v>14.7</v>
@@ -16895,7 +17007,7 @@
         <v>-2.0399999999999991</v>
       </c>
       <c r="H6" s="3">
-        <v>-1.384264608035618</v>
+        <v>-1.3881158921072803</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -16913,7 +17025,7 @@
         <v>-2.5600000000000005</v>
       </c>
       <c r="E7" s="3">
-        <v>-1.0547876658994839</v>
+        <v>-1.0693488870004269</v>
       </c>
       <c r="F7" s="2">
         <v>14.02</v>
@@ -16922,7 +17034,7 @@
         <v>-1.2599999999999998</v>
       </c>
       <c r="H7" s="3">
-        <v>-1.2760345049567359</v>
+        <v>-1.2781292124411876</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -16940,7 +17052,7 @@
         <v>-0.25999999999999979</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.95746851710255154</v>
+        <v>-0.95634868765843595</v>
       </c>
       <c r="F8" s="2">
         <v>13.92</v>
@@ -16949,7 +17061,7 @@
         <v>-0.63000000000000078</v>
       </c>
       <c r="H8" s="3">
-        <v>-1.1706993508260561</v>
+        <v>-1.1705382575288878</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -16967,7 +17079,7 @@
         <v>1.5</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.86820696569906342</v>
+        <v>-0.8475036083056563</v>
       </c>
       <c r="F9" s="2">
         <v>13.78</v>
@@ -16976,7 +17088,7 @@
         <v>-0.66999999999999993</v>
       </c>
       <c r="H9" s="3">
-        <v>-1.0722926724770567</v>
+        <v>-1.0693143867011097</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -16993,7 +17105,7 @@
         <v>-1.1099999999999994</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.79210847576879473</v>
+        <v>-0.74748765961484398</v>
       </c>
       <c r="F10" s="3">
         <v>14.41</v>
@@ -17002,7 +17114,7 @@
         <v>-0.28999999999999915</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.98451005964894955</v>
+        <v>-0.97809112287762656</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17020,7 +17132,7 @@
         <v>4.75</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.73279838203795877</v>
+        <v>-0.65950766250356407</v>
       </c>
       <c r="F11" s="2">
         <v>15.33</v>
@@ -17029,7 +17141,7 @@
         <v>1.3100000000000005</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.91079566916064814</v>
+        <v>-0.90025241748652374</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -17047,7 +17159,7 @@
         <v>3.2899999999999991</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.69410070143541347</v>
+        <v>-0.58699700810212241</v>
       </c>
       <c r="F12" s="2">
         <v>16.260000000000002</v>
@@ -17056,7 +17168,7 @@
         <v>2.3400000000000016</v>
       </c>
       <c r="H12" s="3">
-        <v>-0.85415958904378575</v>
+        <v>-0.83875216500408778</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17074,7 +17186,7 @@
         <v>0.60999999999999943</v>
       </c>
       <c r="E13" s="3">
-        <v>-0.67641270190124303</v>
+        <v>-0.5300081452517601</v>
       </c>
       <c r="F13" s="2">
         <v>16.13</v>
@@ -17083,7 +17195,7 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.81622391003677019</v>
+        <v>-0.79516285214567639</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -17100,7 +17212,7 @@
         <v>0.79000000000000092</v>
       </c>
       <c r="E14" s="3">
-        <v>-0.67764158843713451</v>
+        <v>-0.48617039966365466</v>
       </c>
       <c r="F14" s="3">
         <v>15.98</v>
@@ -17109,7 +17221,7 @@
         <v>1.5700000000000003</v>
       </c>
       <c r="H14" s="3">
-        <v>-0.79661437313485706</v>
+        <v>-0.76907024552351977</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17127,7 +17239,7 @@
         <v>-1.33</v>
       </c>
       <c r="E15" s="3">
-        <v>-0.69489055810608669</v>
+        <v>-0.45240059195820115</v>
       </c>
       <c r="F15" s="2">
         <v>15.26</v>
@@ -17136,7 +17248,7 @@
         <v>-7.0000000000000284E-2</v>
       </c>
       <c r="H15" s="3">
-        <v>-0.79297782938952877</v>
+        <v>-0.75809438496725701</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17154,7 +17266,7 @@
         <v>-1.9800000000000004</v>
       </c>
       <c r="E16" s="3">
-        <v>-0.72434553197832519</v>
+        <v>-0.42481793625600467</v>
       </c>
       <c r="F16" s="2">
         <v>14.57</v>
@@ -17163,7 +17275,7 @@
         <v>-1.6900000000000013</v>
       </c>
       <c r="H16" s="3">
-        <v>-0.80148199586905844</v>
+        <v>-0.75839339140307493</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -17181,7 +17293,7 @@
         <v>-0.26999999999999957</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.76258937452525932</v>
+        <v>-0.40009014630769657</v>
       </c>
       <c r="F17" s="2">
         <v>13.33</v>
@@ -17190,7 +17302,7 @@
         <v>-2.7999999999999989</v>
       </c>
       <c r="H17" s="3">
-        <v>-0.81784272849835082</v>
+        <v>-0.76569532676655594</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -17207,7 +17319,7 @@
         <v>-1.3500000000000014</v>
       </c>
       <c r="E18" s="3">
-        <v>-0.806989734260812</v>
+        <v>-0.37585692465374831</v>
       </c>
       <c r="F18" s="3">
         <v>13.65</v>
@@ -17216,7 +17328,7 @@
         <v>-2.33</v>
       </c>
       <c r="H18" s="3">
-        <v>-0.8383312069548926</v>
+        <v>-0.77631050712365557</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -17234,7 +17346,7 @@
         <v>-4.26</v>
       </c>
       <c r="E19" s="3">
-        <v>-0.85460639133982785</v>
+        <v>-0.34967666749318899</v>
       </c>
       <c r="F19" s="2">
         <v>12.48</v>
@@ -17243,7 +17355,7 @@
         <v>-2.7799999999999994</v>
       </c>
       <c r="H19" s="3">
-        <v>-0.86045745921085903</v>
+        <v>-0.78782068896110025</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -17261,7 +17373,7 @@
         <v>-1.4299999999999997</v>
       </c>
       <c r="E20" s="3">
-        <v>-0.90283850733323856</v>
+        <v>-0.31971661044713912</v>
       </c>
       <c r="F20" s="2">
         <v>12.67</v>
@@ -17270,7 +17382,7 @@
         <v>-1.9000000000000004</v>
       </c>
       <c r="H20" s="3">
-        <v>-0.88266380623407859</v>
+        <v>-0.7987786846986642</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -17288,7 +17400,7 @@
         <v>-1.1799999999999997</v>
       </c>
       <c r="E21" s="3">
-        <v>-0.95121361481738842</v>
+        <v>-0.28658794121953601</v>
       </c>
       <c r="F21" s="2">
         <v>12.87</v>
@@ -17297,7 +17409,7 @@
         <v>-0.46000000000000085</v>
       </c>
       <c r="H21" s="3">
-        <v>-0.90459228308037287</v>
+        <v>-0.80898241882552091</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -18140,7 +18252,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -18196,7 +18308,7 @@
         <v>-0.92000000000000171</v>
       </c>
       <c r="E2" s="3">
-        <v>-0.3233401059817726</v>
+        <v>-0.32198321616439091</v>
       </c>
       <c r="F2" s="2">
         <v>58.46</v>
@@ -18205,7 +18317,7 @@
         <v>-0.32000000000000028</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.30114149602150575</v>
+        <v>-0.29672043965275552</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -18223,7 +18335,7 @@
         <v>-0.71999999999999886</v>
       </c>
       <c r="E3" s="3">
-        <v>-0.32071745530295326</v>
+        <v>-0.31942595534278762</v>
       </c>
       <c r="F3" s="2">
         <v>58.8</v>
@@ -18232,7 +18344,7 @@
         <v>-4.0000000000006253E-2</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.28993551087866382</v>
+        <v>-0.28572750957230231</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -18250,7 +18362,7 @@
         <v>-0.67999999999999972</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.31328388161508508</v>
+        <v>-0.31211028380890932</v>
       </c>
       <c r="F4" s="2">
         <v>58.73</v>
@@ -18259,7 +18371,7 @@
         <v>-0.19000000000000483</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.27663062782583953</v>
+        <v>-0.27280677861650859</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -18277,7 +18389,7 @@
         <v>-1.5600000000000023</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.30098856930499768</v>
+        <v>-0.29999526290773615</v>
       </c>
       <c r="F5" s="2">
         <v>58.61</v>
@@ -18286,7 +18398,7 @@
         <v>-0.18999999999999773</v>
       </c>
       <c r="H5" s="3">
-        <v>-0.26106107660132766</v>
+        <v>-0.25782465790507231</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -18303,7 +18415,7 @@
         <v>0.12000000000000455</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.2840099003335112</v>
+        <v>-0.28326988505686768</v>
       </c>
       <c r="F6" s="2">
         <v>58.35</v>
@@ -18312,7 +18424,7 @@
         <v>-0.10999999999999943</v>
       </c>
       <c r="H6" s="3">
-        <v>-0.24300694280103186</v>
+        <v>-0.24059580432105609</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -18330,7 +18442,7 @@
         <v>-0.68999999999999773</v>
       </c>
       <c r="E7" s="3">
-        <v>-0.26331313880563029</v>
+        <v>-0.26291064563458616</v>
       </c>
       <c r="F7" s="2">
         <v>58.74</v>
@@ -18339,7 +18451,7 @@
         <v>-5.9999999999995168E-2</v>
       </c>
       <c r="H7" s="3">
-        <v>-0.22220389884798003</v>
+        <v>-0.22089248433633193</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -18357,7 +18469,7 @@
         <v>8.9999999999996305E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>-0.23961104263865121</v>
+        <v>-0.23964199634101344</v>
       </c>
       <c r="F8" s="2">
         <v>58.72</v>
@@ -18366,7 +18478,7 @@
         <v>-9.9999999999980105E-3</v>
       </c>
       <c r="H8" s="3">
-        <v>-0.19830448782594942</v>
+        <v>-0.19840534204507121</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -18384,7 +18496,7 @@
         <v>1.4399999999999977</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.21388304903811667</v>
+        <v>-0.21445531972274964</v>
       </c>
       <c r="F9" s="2">
         <v>58.74</v>
@@ -18393,7 +18505,7 @@
         <v>0.13000000000000256</v>
       </c>
       <c r="H9" s="3">
-        <v>-0.17085987538193728</v>
+        <v>-0.17272446373873507</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -18410,7 +18522,7 @@
         <v>-0.47000000000000597</v>
       </c>
       <c r="E10" s="3">
-        <v>-0.1869025883079202</v>
+        <v>-0.18813597207868182</v>
       </c>
       <c r="F10" s="3">
         <v>58.18</v>
@@ -18419,7 +18531,7 @@
         <v>-0.17000000000000171</v>
       </c>
       <c r="H10" s="3">
-        <v>-0.13930353685804966</v>
+        <v>-0.14332218237000649</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -18437,7 +18549,7 @@
         <v>-2.9100000000000037</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.15840941384630652</v>
+        <v>-0.16043527513287029</v>
       </c>
       <c r="F11" s="2">
         <v>55.54</v>
@@ -18446,7 +18558,7 @@
         <v>-3.2000000000000028</v>
       </c>
       <c r="H11" s="3">
-        <v>-0.10288091017427893</v>
+        <v>-0.10948162810173176</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -18464,7 +18576,7 @@
         <v>2.0000000000003126E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.12832021493382798</v>
+        <v>-0.13128071562682619</v>
       </c>
       <c r="F12" s="2">
         <v>57.83</v>
@@ -18473,7 +18585,7 @@
         <v>-0.89000000000000057</v>
       </c>
       <c r="H12" s="3">
-        <v>-6.0856618540081162E-2</v>
+        <v>-7.0502604732775906E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -18491,7 +18603,7 @@
         <v>-1.6099999999999994</v>
       </c>
       <c r="E13" s="3">
-        <v>-9.8271424967382906E-2</v>
+        <v>-0.1023182582551027</v>
       </c>
       <c r="F13" s="2">
         <v>58.19</v>
@@ -18500,7 +18612,7 @@
         <v>-0.55000000000000426</v>
       </c>
       <c r="H13" s="3">
-        <v>-1.4430984596053503E-2</v>
+        <v>-2.7616490044440403E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -18517,7 +18629,7 @@
         <v>-5.9999999999995168E-2</v>
       </c>
       <c r="E14" s="3">
-        <v>-6.9806777209536056E-2</v>
+        <v>-7.5099317264986171E-2</v>
       </c>
       <c r="F14" s="3">
         <v>57.69</v>
@@ -18526,7 +18638,7 @@
         <v>-0.49000000000000199</v>
       </c>
       <c r="H14" s="3">
-        <v>3.4677454403794425E-2</v>
+        <v>1.7433152309931255E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -18544,7 +18656,7 @@
         <v>3.9400000000000048</v>
       </c>
       <c r="E15" s="3">
-        <v>-4.5414835282247545E-2</v>
+        <v>-5.2117607992353543E-2</v>
       </c>
       <c r="F15" s="2">
         <v>58.58</v>
@@ -18553,7 +18665,7 @@
         <v>3.0399999999999991</v>
       </c>
       <c r="H15" s="3">
-        <v>8.4415430570825539E-2</v>
+        <v>6.2576268983273356E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -18571,7 +18683,7 @@
         <v>1.9200000000000017</v>
       </c>
       <c r="E16" s="3">
-        <v>-2.7578033571721523E-2</v>
+        <v>-3.5857408699791121E-2</v>
       </c>
       <c r="F16" s="2">
         <v>59.14</v>
@@ -18580,7 +18692,7 @@
         <v>1.3100000000000023</v>
       </c>
       <c r="H16" s="3">
-        <v>0.13240175260740039</v>
+        <v>0.10542566090832649</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -18598,7 +18710,7 @@
         <v>0.84000000000000341</v>
       </c>
       <c r="E17" s="3">
-        <v>-1.6287922192110726E-2</v>
+        <v>-2.6307924144889985E-2</v>
       </c>
       <c r="F17" s="2">
         <v>58.65</v>
@@ -18607,7 +18719,7 @@
         <v>0.46000000000000085</v>
       </c>
       <c r="H17" s="3">
-        <v>0.17810246957177278</v>
+        <v>0.14545501884971671</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -18624,7 +18736,7 @@
         <v>9.9999999999980105E-3</v>
       </c>
       <c r="E18" s="3">
-        <v>-1.0318814986585578E-2</v>
+        <v>-2.2235948204803849E-2</v>
       </c>
       <c r="F18" s="3">
         <v>58.5</v>
@@ -18633,7 +18745,7 @@
         <v>0.81000000000000227</v>
       </c>
       <c r="H18" s="3">
-        <v>0.22171962942681692</v>
+        <v>0.18289089253400237</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -18651,7 +18763,7 @@
         <v>-0.67999999999999972</v>
       </c>
       <c r="E19" s="3">
-        <v>-7.9098458469464249E-3</v>
+        <v>-2.1866832304095873E-2</v>
       </c>
       <c r="F19" s="2">
         <v>58.71</v>
@@ -18660,7 +18772,7 @@
         <v>0.13000000000000256</v>
       </c>
       <c r="H19" s="3">
-        <v>0.26363146609192462</v>
+        <v>0.21815642230096075</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -18678,7 +18790,7 @@
         <v>-1.480000000000004</v>
       </c>
       <c r="E20" s="3">
-        <v>-7.2874494056270013E-3</v>
+        <v>-2.3405780399701214E-2</v>
       </c>
       <c r="F20" s="2">
         <v>58.86</v>
@@ -18687,7 +18799,7 @@
         <v>-0.28000000000000114</v>
       </c>
       <c r="H20" s="3">
-        <v>0.30458388871809594</v>
+        <v>0.25206669168253537</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -18705,7 +18817,7 @@
         <v>-0.70000000000000284</v>
       </c>
       <c r="E21" s="3">
-        <v>-7.0981166414066993E-3</v>
+        <v>-2.5469329678364971E-2</v>
       </c>
       <c r="F21" s="2">
         <v>58.52</v>
@@ -18714,7 +18826,7 @@
         <v>-0.12999999999999545</v>
       </c>
       <c r="H21" s="3">
-        <v>0.34523928679002347</v>
+        <v>0.28538168644673167</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -19557,7 +19669,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:H22"/>
+      <selection activeCell="A23" sqref="A23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -19613,7 +19725,7 @@
         <v>8.9999999999996305E-2</v>
       </c>
       <c r="E2" s="3">
-        <v>0.55230188836413829</v>
+        <v>0.55178652609566792</v>
       </c>
       <c r="F2" s="2">
         <v>48.67</v>
@@ -19622,7 +19734,7 @@
         <v>0.91000000000000369</v>
       </c>
       <c r="H2" s="3">
-        <v>0.80133180233254064</v>
+        <v>0.80913365584941643</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -19640,7 +19752,7 @@
         <v>0.74000000000000199</v>
       </c>
       <c r="E3" s="3">
-        <v>0.51675210591958332</v>
+        <v>0.51626157946660645</v>
       </c>
       <c r="F3" s="2">
         <v>49.81</v>
@@ -19649,7 +19761,7 @@
         <v>1.1099999999999994</v>
       </c>
       <c r="H3" s="3">
-        <v>0.76037751760229322</v>
+        <v>0.76780339211118009</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -19667,7 +19779,7 @@
         <v>1.4200000000000017</v>
       </c>
       <c r="E4" s="3">
-        <v>0.47824970094096902</v>
+        <v>0.47780395507427048</v>
       </c>
       <c r="F4" s="2">
         <v>50.18</v>
@@ -19676,7 +19788,7 @@
         <v>0.90999999999999659</v>
       </c>
       <c r="H4" s="3">
-        <v>0.71466270636806206</v>
+        <v>0.7214106663381481</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -19694,7 +19806,7 @@
         <v>0.71999999999999886</v>
       </c>
       <c r="E5" s="3">
-        <v>0.43802868819535157</v>
+        <v>0.43765141906736321</v>
       </c>
       <c r="F5" s="2">
         <v>50.14</v>
@@ -19703,7 +19815,7 @@
         <v>1.0700000000000003</v>
       </c>
       <c r="H5" s="3">
-        <v>0.6661780561075995</v>
+        <v>0.67188937541262761</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -19720,7 +19832,7 @@
         <v>0.25</v>
       </c>
       <c r="E6" s="3">
-        <v>0.39791167638669889</v>
+        <v>0.39763061012266637</v>
       </c>
       <c r="F6" s="2">
         <v>49.78</v>
@@ -19729,7 +19841,7 @@
         <v>1.1099999999999994</v>
       </c>
       <c r="H6" s="3">
-        <v>0.61703634010717789</v>
+        <v>0.62129128455046456</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -19747,7 +19859,7 @@
         <v>0.77999999999999403</v>
       </c>
       <c r="E7" s="3">
-        <v>0.35989750628885703</v>
+        <v>0.3597446347800447</v>
       </c>
       <c r="F7" s="2">
         <v>50.51</v>
@@ -19756,7 +19868,7 @@
         <v>0.69999999999999574</v>
       </c>
       <c r="H7" s="3">
-        <v>0.56960272036800252</v>
+        <v>0.57191697810787212</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -19774,7 +19886,7 @@
         <v>0.22999999999999687</v>
       </c>
       <c r="E8" s="3">
-        <v>0.32589257387793036</v>
+        <v>0.32590433044803641</v>
       </c>
       <c r="F8" s="2">
         <v>50.54</v>
@@ -19783,7 +19895,7 @@
         <v>0.35999999999999943</v>
       </c>
       <c r="H8" s="3">
-        <v>0.52655046117871174</v>
+        <v>0.5263724833882194</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -19801,7 +19913,7 @@
         <v>0.46000000000000085</v>
       </c>
       <c r="E9" s="3">
-        <v>0.2980658391885927</v>
+        <v>0.29828319413844206</v>
       </c>
       <c r="F9" s="2">
         <v>50.64</v>
@@ -19810,7 +19922,7 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="3">
-        <v>0.49063432512771377</v>
+        <v>0.48734387958355813</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -19827,7 +19939,7 @@
         <v>0.19000000000000483</v>
       </c>
       <c r="E10" s="3">
-        <v>0.27852632939684419</v>
+        <v>0.27899478265653227</v>
       </c>
       <c r="F10" s="3">
         <v>49.8</v>
@@ -19836,7 +19948,7 @@
         <v>1.9999999999996021E-2</v>
       </c>
       <c r="H10" s="3">
-        <v>0.46450498076518032</v>
+        <v>0.45741326308382246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -19854,7 +19966,7 @@
         <v>-5.0899999999999963</v>
       </c>
       <c r="E11" s="3">
-        <v>0.2694842805291921</v>
+        <v>0.27025372581124113</v>
       </c>
       <c r="F11" s="2">
         <v>47.03</v>
@@ -19863,7 +19975,7 @@
         <v>-3.4799999999999969</v>
       </c>
       <c r="H11" s="3">
-        <v>0.45081895018807816</v>
+        <v>0.43917064035420672</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -19881,7 +19993,7 @@
         <v>-1.7899999999999991</v>
       </c>
       <c r="E12" s="3">
-        <v>0.2730945996562707</v>
+        <v>0.27421903167234241</v>
       </c>
       <c r="F12" s="2">
         <v>48.43</v>
@@ -19890,7 +20002,7 @@
         <v>-2.1099999999999994</v>
       </c>
       <c r="H12" s="3">
-        <v>0.45195493988039592</v>
+        <v>0.43493263457047793</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -19908,7 +20020,7 @@
         <v>-1.759999999999998</v>
       </c>
       <c r="E13" s="3">
-        <v>0.28816251617338351</v>
+        <v>0.28969954973097783</v>
       </c>
       <c r="F13" s="2">
         <v>48.81</v>
@@ -19917,7 +20029,7 @@
         <v>-1.8299999999999983</v>
       </c>
       <c r="H13" s="3">
-        <v>0.46783489448225463</v>
+        <v>0.44456638725818176</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -19934,7 +20046,7 @@
         <v>-0.48000000000000398</v>
       </c>
       <c r="E14" s="3">
-        <v>0.31220382535104896</v>
+        <v>0.31421399258349397</v>
       </c>
       <c r="F14" s="3">
         <v>48.47</v>
@@ -19943,7 +20055,7 @@
         <v>-1.3299999999999983</v>
       </c>
       <c r="H14" s="3">
-        <v>0.49677953679635023</v>
+        <v>0.46634845704625744</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -19961,7 +20073,7 @@
         <v>4.1300000000000026</v>
       </c>
       <c r="E15" s="3">
-        <v>0.34145422088717703</v>
+        <v>0.3440000106076555</v>
       </c>
       <c r="F15" s="2">
         <v>49.63</v>
@@ -19970,7 +20082,7 @@
         <v>2.6000000000000014</v>
       </c>
       <c r="H15" s="3">
-        <v>0.53567344281632712</v>
+        <v>0.49713379857160767</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -19988,7 +20100,7 @@
         <v>2.8100000000000023</v>
       </c>
       <c r="E16" s="3">
-        <v>0.37165426908883331</v>
+        <v>0.37479887043586241</v>
       </c>
       <c r="F16" s="2">
         <v>50.52</v>
@@ -19997,7 +20109,7 @@
         <v>2.0900000000000034</v>
       </c>
       <c r="H16" s="3">
-        <v>0.58025945132533197</v>
+        <v>0.53265464868548129</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -20015,7 +20127,7 @@
         <v>0.89000000000000057</v>
       </c>
       <c r="E17" s="3">
-        <v>0.40091237737502894</v>
+        <v>0.40471808869388493</v>
       </c>
       <c r="F17" s="2">
         <v>50.83</v>
@@ -20024,7 +20136,7 @@
         <v>2.019999999999996</v>
       </c>
       <c r="H17" s="3">
-        <v>0.62757060520475139</v>
+        <v>0.56995753561501994</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -20041,7 +20153,7 @@
         <v>0.74000000000000199</v>
       </c>
       <c r="E18" s="3">
-        <v>0.42886091924659459</v>
+        <v>0.43338718271347093</v>
       </c>
       <c r="F18" s="3">
         <v>50.51</v>
@@ -20050,7 +20162,7 @@
         <v>2.0399999999999991</v>
       </c>
       <c r="H18" s="3">
-        <v>0.67558353517889369</v>
+        <v>0.60706232843193686</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -20068,7 +20180,7 @@
         <v>1.7399999999999949</v>
       </c>
       <c r="E19" s="3">
-        <v>0.45543794796850146</v>
+        <v>0.46073897102093458</v>
       </c>
       <c r="F19" s="2">
         <v>51.38</v>
@@ -20077,7 +20189,7 @@
         <v>1.75</v>
       </c>
       <c r="H19" s="3">
-        <v>0.72314514034381416</v>
+        <v>0.64289517274818597</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -20095,7 +20207,7 @@
         <v>-0.53000000000000114</v>
       </c>
       <c r="E20" s="3">
-        <v>0.48077597873119171</v>
+        <v>0.48689790515339421</v>
       </c>
       <c r="F20" s="2">
         <v>51.4</v>
@@ -20104,7 +20216,7 @@
         <v>0.87999999999999545</v>
       </c>
       <c r="H20" s="3">
-        <v>0.76995508008608127</v>
+        <v>0.67727780022045125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -20122,7 +20234,7 @@
         <v>1.9999999999996021E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>0.50581037800762718</v>
+        <v>0.51278797479107996</v>
       </c>
       <c r="F21" s="2">
         <v>50.99</v>
@@ -20131,7 +20243,7 @@
         <v>0.16000000000000369</v>
       </c>
       <c r="H21" s="3">
-        <v>0.81635479807954858</v>
+        <v>0.71072388302244893</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -20974,7 +21086,7 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A24" sqref="A24:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
@@ -21030,7 +21142,7 @@
         <v>6.0966542750929387</v>
       </c>
       <c r="E2" s="3">
-        <v>0.71681052832420622</v>
+        <v>0.69377370090659407</v>
       </c>
       <c r="F2" s="2">
         <v>134.9</v>
@@ -21039,7 +21151,7 @@
         <v>2.3520485584218376</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.41017362598188006</v>
+        <v>-0.44122531975982704</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -21057,7 +21169,7 @@
         <v>0.6382978723404209</v>
       </c>
       <c r="E3" s="3">
-        <v>0.23273607846938554</v>
+        <v>0.21007684134173757</v>
       </c>
       <c r="F3" s="2">
         <v>135.5</v>
@@ -21066,7 +21178,7 @@
         <v>0.96870342771981921</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.85882535428139839</v>
+        <v>-0.8893680883035181</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -21084,7 +21196,7 @@
         <v>-2.3411371237458178</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1967667500123754</v>
+        <v>-0.21833752102873272</v>
       </c>
       <c r="F4" s="2">
         <v>136.19999999999999</v>
@@ -21093,7 +21205,7 @@
         <v>-0.51132213294377005</v>
       </c>
       <c r="H4" s="3">
-        <v>-1.245576817594402</v>
+        <v>-1.2746523914141736</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -21111,7 +21223,7 @@
         <v>0.76655052264809065</v>
       </c>
       <c r="E5" s="3">
-        <v>-0.56190173167417257</v>
+        <v>-0.58153152618841164</v>
       </c>
       <c r="F5" s="2">
         <v>133.9</v>
@@ -21120,7 +21232,7 @@
         <v>-1.107828655834564</v>
       </c>
       <c r="H5" s="3">
-        <v>-1.5620903063232143</v>
+        <v>-1.5885496080808053</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -21137,7 +21249,7 @@
         <v>-2.3125437981779795</v>
       </c>
       <c r="E6" s="3">
-        <v>-0.8542128725526853</v>
+        <v>-0.87089406387259216</v>
       </c>
       <c r="F6" s="2">
         <v>132.5</v>
@@ -21146,7 +21258,7 @@
         <v>-1.779095626389926</v>
       </c>
       <c r="H6" s="3">
-        <v>-1.7995692016922522</v>
+        <v>-1.8220540358808803</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -21164,7 +21276,7 @@
         <v>-1.6913319238900715</v>
       </c>
       <c r="E7" s="3">
-        <v>-1.0644138960256415</v>
+        <v>-1.0769714725360444</v>
       </c>
       <c r="F7" s="2">
         <v>132.9</v>
@@ -21173,7 +21285,7 @@
         <v>-1.9188191881918781</v>
       </c>
       <c r="H7" s="3">
-        <v>-1.9489329713943773</v>
+        <v>-1.9658595217967127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -21191,7 +21303,7 @@
         <v>-0.54794520547946091</v>
       </c>
       <c r="E8" s="3">
-        <v>-1.184129982299285</v>
+        <v>-1.1912111217174794</v>
       </c>
       <c r="F8" s="2">
         <v>135</v>
@@ -21200,7 +21312,7 @@
         <v>-0.88105726872246271</v>
       </c>
       <c r="H8" s="3">
-        <v>-2.001088287137887</v>
+        <v>-2.0106330638046841</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -21218,7 +21330,7 @@
         <v>-1.1756569847856113</v>
       </c>
       <c r="E9" s="3">
-        <v>-1.2053781353472748</v>
+        <v>-1.2054443562377044</v>
       </c>
       <c r="F9" s="2">
         <v>131.1</v>
@@ -21227,7 +21339,7 @@
         <v>-2.0911127707244348</v>
       </c>
       <c r="H9" s="3">
-        <v>-1.9469229995165773</v>
+        <v>-1.9470122596726733</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -21244,7 +21356,7 @@
         <v>-3.0846484935437624</v>
       </c>
       <c r="E10" s="3">
-        <v>-1.1197777436577574</v>
+        <v>-1.111100479719878</v>
       </c>
       <c r="F10" s="2">
         <v>130.6</v>
@@ -21253,7 +21365,7 @@
         <v>-1.4339622641509453</v>
       </c>
       <c r="H10" s="3">
-        <v>-1.7766249397377345</v>
+        <v>-1.764928722296633</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -21271,7 +21383,7 @@
         <v>-27.670250896057347</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.91892961999977874</v>
+        <v>-0.89959017868000146</v>
       </c>
       <c r="F11" s="2">
         <v>95.5</v>
@@ -21280,7 +21392,7 @@
         <v>-28.14145974416855</v>
       </c>
       <c r="H11" s="3">
-        <v>-1.4804720576156505</v>
+        <v>-1.4544041273919233</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -21298,7 +21410,7 @@
         <v>-27.96143250688705</v>
       </c>
       <c r="E12" s="3">
-        <v>-0.5956626213610634</v>
+        <v>-0.56355760714271608</v>
       </c>
       <c r="F12" s="2">
         <v>95.5</v>
@@ -21307,7 +21419,7 @@
         <v>-29.259259259259263</v>
       </c>
       <c r="H12" s="3">
-        <v>-1.0485281387923751</v>
+        <v>-1.0052532966375631</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -21325,7 +21437,7 @@
         <v>-14.97550734779567</v>
       </c>
       <c r="E13" s="3">
-        <v>-0.15952518052687209</v>
+        <v>-0.11237858208102389</v>
       </c>
       <c r="F13" s="2">
         <v>105.5</v>
@@ -21334,7 +21446,7 @@
         <v>-19.527078565980162</v>
       </c>
       <c r="H13" s="3">
-        <v>-0.48752008621405396</v>
+        <v>-0.42397046147305734</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -21351,7 +21463,7 @@
         <v>-10.65877128053293</v>
       </c>
       <c r="E14" s="3">
-        <v>0.36283066353908078</v>
+        <v>0.42744740771973283</v>
       </c>
       <c r="F14" s="2">
         <v>109.3</v>
@@ -21360,7 +21472,7 @@
         <v>-16.309341500765694</v>
       </c>
       <c r="H14" s="3">
-        <v>0.17819349022287528</v>
+        <v>0.2652913929354509</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -21378,7 +21490,7 @@
         <v>28.047571853320097</v>
       </c>
       <c r="E15" s="3">
-        <v>0.93549288301853772</v>
+        <v>1.02013141799564</v>
       </c>
       <c r="F15" s="2">
         <v>114.8</v>
@@ -21387,7 +21499,7 @@
         <v>20.209424083769623</v>
       </c>
       <c r="H15" s="3">
-        <v>0.91235425657212132</v>
+        <v>1.0264398388565013</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21405,7 +21517,7 @@
         <v>33.365200764818368</v>
       </c>
       <c r="E16" s="3">
-        <v>1.5156609488781962</v>
+        <v>1.6229556178026256</v>
       </c>
       <c r="F16" s="2">
         <v>128.9</v>
@@ -21414,7 +21526,7 @@
         <v>34.973821989528808</v>
       </c>
       <c r="H16" s="3">
-        <v>1.6683991695180249</v>
+        <v>1.8130233030000702</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -21432,7 +21544,7 @@
         <v>15.7201646090535</v>
       </c>
       <c r="E17" s="3">
-        <v>2.0774793814411927</v>
+        <v>2.2100943264686959</v>
       </c>
       <c r="F17" s="2">
         <v>130.30000000000001</v>
@@ -21441,7 +21553,7 @@
         <v>23.507109004739355</v>
       </c>
       <c r="H17" s="3">
-        <v>2.4118258543869255</v>
+        <v>2.5905795772292053</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -21458,7 +21570,7 @@
         <v>12.013256006627993</v>
       </c>
       <c r="E18" s="3">
-        <v>2.6149986634156255</v>
+        <v>2.7755607665387414</v>
       </c>
       <c r="F18" s="2">
         <v>127</v>
@@ -21467,7 +21579,7 @@
         <v>16.193961573650519</v>
       </c>
       <c r="H18" s="3">
-        <v>3.1289478257676691</v>
+        <v>3.3453719525860341</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -21485,7 +21597,7 @@
         <v>1.702786377708998</v>
       </c>
       <c r="E19" s="3">
-        <v>3.130795955776851</v>
+        <v>3.3218119544842684</v>
       </c>
       <c r="F19" s="2">
         <v>121.9</v>
@@ -21494,7 +21606,7 @@
         <v>6.1846689895470375</v>
       </c>
       <c r="H19" s="3">
-        <v>3.8192631502180716</v>
+        <v>4.0767365510048785</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -21512,7 +21624,7 @@
         <v>-1.5053763440860179</v>
       </c>
       <c r="E20" s="3">
-        <v>3.6333223303397335</v>
+        <v>3.8570784663018389</v>
       </c>
       <c r="F20" s="2">
         <v>131</v>
@@ -21521,7 +21633,7 @@
         <v>1.6291698991466319</v>
       </c>
       <c r="H20" s="3">
-        <v>4.4904355278883763</v>
+        <v>4.7920398629332253</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -21539,7 +21651,7 @@
         <v>-0.64011379800853474</v>
       </c>
       <c r="E21" s="3">
-        <v>4.1301363529328441</v>
+        <v>4.3885789870025302</v>
       </c>
       <c r="F21" s="2">
         <v>127.2</v>
@@ -21548,7 +21660,7 @@
         <v>-2.3791250959324661</v>
       </c>
       <c r="H21" s="3">
-        <v>5.1516070375784064</v>
+        <v>5.4999658365926498</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -21565,7 +21677,7 @@
         <v>2.4408284023668791</v>
       </c>
       <c r="E22" s="3">
-        <v>4.6255849027132383</v>
+        <v>4.9201806673409267</v>
       </c>
       <c r="F22" s="2">
         <v>129</v>
@@ -21574,11 +21686,12 @@
         <v>1.5748031496062964</v>
       </c>
       <c r="H22" s="3">
-        <v>5.8101314670700219</v>
+        <v>6.2072216264773603</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
+        <f>A22</f>
         <v>2023</v>
       </c>
       <c r="B23" s="2">
